--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41E733E-871D-43F4-BF4D-5BEB9A127D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EF2DF72-DEA2-4087-9386-AE5A3780B030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -959,6 +950,15 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2152,6 +2152,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3566,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3577,29 +3578,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>45591</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3615,23 +3616,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3639,15 +3641,15 @@
         <v>1462217799</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3671,15 +3673,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3693,25 +3695,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3720,16 +3722,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3738,7 +3740,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3869,7 +3871,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C29" s="151">
         <v>173</v>
@@ -4135,11 +4137,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.933259443931391E-2</v>
+        <v>6.941813386580795E-3</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4184,7 +4186,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4582,7 +4584,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4590,21 +4592,21 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="237" t="s">
         <v>253</v>
-      </c>
-      <c r="C87" s="237" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4618,10 +4620,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4670,7 +4672,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4691,7 +4693,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4709,7 +4711,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4816,7 +4818,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4852,8 +4854,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4896,17 +4898,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>1910.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>20.3</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4916,40 +4918,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>SAMSONITE</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>1462217799</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>29683.021319700001</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>21611.578678765723</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4972,11 +4974,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4996,7 +4998,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7821799914042158</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5039,7 +5041,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5089,7 +5091,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5129,7 +5131,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5163,7 +5165,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.3735093999057768</v>
+        <v>13.448399924558629</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5179,12 +5181,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>8.771758247183653E-2</v>
+        <v>1.5481284591612646E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5211,7 +5213,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.933259443931391E-2</v>
+        <v>6.941813386580795E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5228,12 +5230,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5241,22 +5243,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.98451934377305</v>
+        <v>0.58063027226977881</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>32.457821065650023</v>
+        <v>1.7726889283548641</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.805316875027117</v>
-      </c>
-      <c r="G29" s="271">
+        <v>0.68309443796444569</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.224192231000021</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>1.541468633352056</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5304,7 +5306,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5314,7 +5316,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5341,7 +5343,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6287,12 +6289,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6778,7 +6777,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6829,7 +6828,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6880,7 +6879,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6931,7 +6930,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7033,7 +7032,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7186,7 +7185,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8257,7 +8256,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8326,7 +8325,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8530,7 +8529,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10353,11 +10352,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18438.253326337381</v>
+        <v>-3787.9850303359653</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.47371084401828</v>
+        <v>3.3571779902526226</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11444,11 +11443,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.3735093999057768</v>
+        <v>13.448399924558629</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>304.04655412793085</v>
+        <v>1722.7400303359652</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11480,11 +11479,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>2453.6</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11495,11 +11494,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11511,11 +11510,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11729,19 +11728,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11751,18 +11750,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11839,7 +11838,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11899,7 +11898,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11962,7 +11961,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11992,7 +11991,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12129,17 +12128,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.771758247183653E-2</v>
+        <v>1.5481284591612646E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.771758247183653E-2</v>
+        <v>1.5481284591612646E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.771758247183653E-2</v>
+        <v>1.5481284591612646E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12180,17 +12179,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.933259443931391E-2</v>
+        <v>6.941813386580795E-3</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.933259443931391E-2</v>
+        <v>6.941813386580795E-3</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.933259443931391E-2</v>
+        <v>6.941813386580795E-3</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12221,15 +12220,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12250,14 +12249,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>41.078965682383668</v>
+        <v>3.7436660728938072</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>41.078965682383668</v>
+        <v>3.7436660728938072</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12275,14 +12274,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.671598489627756</v>
+        <v>1.609256611459936</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.671598489627756</v>
+        <v>1.609256611459936</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12308,7 +12307,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12325,21 +12324,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29863.614060489494</v>
+        <v>2721.5728759254789</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>20.423506047398</v>
+        <v>1.8612636761683128</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>20.423506047398</v>
+        <v>1.8612636761683128</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.842381403370904</v>
+        <v>2.7196378715559231</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12349,14 +12348,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2366.1450099897825</v>
+        <v>1722.7400303359652</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.6181891723708817</v>
+        <v>1.1781692382038671</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12388,27 +12387,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>27497.469050499712</v>
+        <v>998.83284558951368</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.98451934377305</v>
+        <v>0.58063027226977881</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>18.805316875027117</v>
+        <v>0.68309443796444569</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.805316875027117</v>
+        <v>0.68309443796444569</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.80531687502712</v>
+        <v>0.68309443796444558</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>28.224192231000021</v>
+        <v>1.541468633352056</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12432,7 +12431,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12449,27 +12448,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10665.968523462583</v>
+        <v>1169.8984521788955</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2002208228783813</v>
+        <v>0.6800722060914135</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.2943774386804492</v>
+        <v>0.8000849483428395</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.2943774386804492</v>
+        <v>0.8000849483428395</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2943774386804492</v>
+        <v>0.8000849483428395</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.658385152875299</v>
+        <v>1.1690666689711309</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12493,7 +12492,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12510,27 +12509,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>19081.718786981146</v>
+        <v>1084.3656488842046</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.092370083325715</v>
+        <v>0.6303512391805961</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.049847156853783</v>
+        <v>0.74158969315364254</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.049847156853783</v>
+        <v>0.74158969315364254</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.049847156853785</v>
+        <v>0.74158969315364254</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.441288691937661</v>
+        <v>1.3552676511615935</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EF2DF72-DEA2-4087-9386-AE5A3780B030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{788FB6C5-7B70-4A30-98F0-DE0D7E6ACB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -937,6 +934,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1517,7 +1518,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,6 +2154,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3581,12 +3585,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>261</v>
@@ -3594,7 +3598,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>262</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3627,7 +3631,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>263</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>1462217799</v>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>264</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3675,10 +3679,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3692,7 +3696,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>265</v>
@@ -3701,16 +3705,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>266</v>
@@ -3719,7 +3723,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>266</v>
@@ -3728,7 +3732,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>265</v>
@@ -3737,7 +3741,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>267</v>
@@ -3871,7 +3875,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>173</v>
@@ -4119,7 +4123,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <v>0.1026</v>
@@ -4137,11 +4141,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.941813386580795E-3</v>
+        <v>3.8022062424251012E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4186,13 +4190,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4564,7 +4568,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>1478.9</v>
@@ -4584,7 +4588,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4592,26 +4596,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4620,10 +4624,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4672,7 +4676,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4693,7 +4697,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4711,7 +4715,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4768,7 +4772,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4855,7 +4859,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4896,19 +4900,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>1910.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>21</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4916,42 +4920,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>SAMSONITE</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>1462217799</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>21611.578678765723</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>30706.573778999998</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4974,16 +4978,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4998,7 +5002,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>7.7822934786478681</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5008,40 +5012,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5054,29 +5058,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5086,12 +5090,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5101,7 +5105,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5109,7 +5113,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5123,7 +5127,7 @@
         <v>0.40723441233977836</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5131,7 +5135,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5142,14 +5146,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.2057353899630675E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5161,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>13.448399924558629</v>
+        <v>2.4553187458039964</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5177,16 +5181,16 @@
         <v>4.6980230284597004E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>1.5481284591612646E-2</v>
+        <v>260</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>11.793162144532678</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5209,11 +5213,11 @@
         <v>0.12114381924831638</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.941813386580795E-3</v>
+        <v>3.8022062424251012E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5230,12 +5234,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5243,42 +5247,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.58063027226977881</v>
+        <v>15.705359253455841</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>1.7726889283548641</v>
+        <v>31.935546403555552</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.68309443796444569</v>
-      </c>
-      <c r="G29" s="272">
+        <v>18.476893239359814</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.541468633352056</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>27.770040350917874</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5288,7 +5292,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5299,14 +5303,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5316,7 +5320,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5326,14 +5330,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5343,7 +5347,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5358,14 +5362,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6350,16 +6354,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6377,7 +6381,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6410,7 +6414,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6777,7 +6781,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6828,7 +6832,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6879,7 +6883,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6930,7 +6934,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7032,7 +7036,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7185,7 +7189,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8256,7 +8260,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8325,7 +8329,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8529,7 +8533,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10352,11 +10356,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-3787.9850303359653</v>
+        <v>-18520.078912540921</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>3.3571779902526226</v>
+        <v>12.524629068164851</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10427,7 +10431,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11443,11 +11447,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>13.448399924558629</v>
+        <v>2.4553187458039964</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>1722.7400303359652</v>
+        <v>314.52633133749282</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11479,11 +11483,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>2453.6</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11494,11 +11498,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11510,11 +11514,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11728,19 +11732,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11750,18 +11754,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11838,7 +11842,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11898,7 +11902,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11961,7 +11965,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11991,7 +11995,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12124,28 +12128,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5481284591612646E-2</v>
+        <v>8.4794899598968118E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5481284591612646E-2</v>
+        <v>8.4794899598968118E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5481284591612646E-2</v>
+        <v>8.4794899598968118E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12175,21 +12179,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.941813386580795E-3</v>
+        <v>3.8022062424251012E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.941813386580795E-3</v>
+        <v>3.8022062424251012E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.941813386580795E-3</v>
+        <v>3.8022062424251012E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12220,15 +12224,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12245,24 +12249,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>3.7436660728938072</v>
+        <v>40.530621422328416</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>3.7436660728938072</v>
+        <v>40.530621422328416</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12270,18 +12274,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>1.609256611459936</v>
+        <v>14.579544335267672</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>1.609256611459936</v>
+        <v>14.579544335267672</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12300,14 +12304,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12324,21 +12328,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2721.5728759254789</v>
+        <v>29464.978382045494</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.8612636761683128</v>
+        <v>20.150882038364173</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.8612636761683128</v>
+        <v>20.150882038364173</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>2.7196378715559231</v>
+        <v>29.444029149922233</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12348,14 +12352,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>1722.7400303359652</v>
+        <v>2447.736217230809</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.1781692382038671</v>
+        <v>1.67398879900436</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12387,27 +12391,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>998.83284558951368</v>
+        <v>27017.242164814685</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.58063027226977881</v>
+        <v>15.705359253455841</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>0.68309443796444569</v>
+        <v>18.476893239359814</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>0.68309443796444569</v>
+        <v>18.476893239359814</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.68309443796444558</v>
+        <v>18.476893239359814</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>1.541468633352056</v>
+        <v>27.770040350917874</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12424,14 +12428,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12448,27 +12452,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1169.8984521788955</v>
+        <v>10599.046932502148</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.6800722060914135</v>
+        <v>6.1613187165332981</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.8000849483428395</v>
+        <v>7.2486102547450573</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>0.8000849483428395</v>
+        <v>7.2486102547450573</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.8000849483428395</v>
+        <v>7.2486102547450573</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.1690666689711309</v>
+        <v>10.591511142331345</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12478,21 +12482,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12505,31 +12509,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1084.3656488842046</v>
+        <v>18808.144548658416</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.6303512391805961</v>
+        <v>10.93333898499457</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.74158969315364254</v>
+        <v>12.862751747052435</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.74158969315364254</v>
+        <v>12.862751747052435</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.74158969315364254</v>
+        <v>12.862751747052435</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.3552676511615935</v>
+        <v>19.180775746624612</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{788FB6C5-7B70-4A30-98F0-DE0D7E6ACB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53F172E-65E8-4927-AF13-B10E8DB9BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -960,6 +957,10 @@
   </si>
   <si>
     <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3585,28 +3586,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45591</v>
@@ -3614,7 +3615,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3622,24 +3623,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>1462217799</v>
@@ -3647,15 +3648,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000000</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3679,15 +3680,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3696,61 +3697,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>3682.4</v>
@@ -3819,7 +3820,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>1499.6</v>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>1519.3</v>
@@ -3859,7 +3860,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>173</v>
@@ -3895,7 +3896,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>33.299999999999997</v>
@@ -3915,7 +3916,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3931,7 +3932,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3947,7 +3948,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3963,7 +3964,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3979,7 +3980,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -3995,7 +3996,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4011,7 +4012,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4027,7 +4028,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4043,7 +4044,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4059,7 +4060,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4075,7 +4076,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4091,7 +4092,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4107,7 +4108,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4123,7 +4124,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <v>0.1026</v>
@@ -4141,11 +4142,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8022062424251012E-2</v>
+        <v>3.6881485095475619E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4190,21 +4191,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <v>815.5</v>
@@ -4216,7 +4217,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4226,7 +4227,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59">
         <v>346.1</v>
@@ -4239,7 +4240,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4249,7 +4250,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4259,7 +4260,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4270,7 +4271,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59">
         <v>95.8</v>
@@ -4282,7 +4283,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59">
         <v>637.70000000000005</v>
@@ -4295,7 +4296,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4303,24 +4304,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4331,7 +4332,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4342,7 +4343,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4353,7 +4354,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4364,7 +4365,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4375,7 +4376,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4386,7 +4387,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4396,31 +4397,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4428,12 +4429,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <v>701.8</v>
@@ -4446,7 +4447,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4457,7 +4458,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59">
         <v>1525.3</v>
@@ -4469,7 +4470,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>169.3</v>
@@ -4482,7 +4483,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248">
         <v>949.6</v>
@@ -4494,7 +4495,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59">
         <v>92.8</v>
@@ -4502,7 +4503,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59">
         <v>126</v>
@@ -4510,19 +4511,19 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>1180.4000000000001</v>
@@ -4530,7 +4531,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59">
         <v>1721</v>
@@ -4538,7 +4539,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59">
         <v>392.6</v>
@@ -4546,13 +4547,13 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120">
         <v>121.2</v>
@@ -4560,7 +4561,7 @@
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83">
         <v>2453.6999999999998</v>
@@ -4568,7 +4569,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>1478.9</v>
@@ -4576,19 +4577,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4596,15 +4597,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4612,10 +4613,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4625,19 +4626,19 @@
         <v>(Numbers in 1000000USD)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4655,7 +4656,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4676,7 +4677,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4697,7 +4698,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4715,7 +4716,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4736,7 +4737,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4754,7 +4755,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4772,7 +4773,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4900,7 +4901,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4912,15 +4913,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>21</v>
+        <v>21.65</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4929,7 +4930,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4940,7 +4941,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4949,11 +4950,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>30706.573778999998</v>
+        <v>31657.01534835</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4961,7 +4962,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4976,7 +4977,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4987,7 +4988,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4999,10 +5000,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7822934786478681</v>
+        <v>7.7824966112772627</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5012,40 +5013,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5058,29 +5059,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5090,12 +5091,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5105,29 +5106,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.40723441233977836</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5135,7 +5136,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5146,58 +5147,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.2057353899630675E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.4553187458039964</v>
+        <v>2.531250636538104</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>4.6980230284597004E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.793162144532678</v>
+        <v>12.157871248350093</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5206,61 +5207,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.12114381924831638</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.8022062424251012E-2</v>
+        <v>3.6881485095475619E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.705359253455841</v>
+        <v>15.461884735883711</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>31.935546403555552</v>
+        <v>31.481704297517592</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.476893239359814</v>
+        <v>18.190452630451425</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>27.770040350917874</v>
+        <v>27.375395041319646</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5268,21 +5269,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5292,7 +5293,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5303,14 +5304,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5320,7 +5321,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5330,14 +5331,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5347,7 +5348,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5362,14 +5363,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6349,21 +6350,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6374,14 +6375,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6403,7 +6404,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6414,7 +6415,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6425,7 +6426,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6475,7 +6476,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6526,7 +6527,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6577,7 +6578,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6628,7 +6629,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6679,7 +6680,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6730,7 +6731,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6781,7 +6782,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6832,7 +6833,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6883,7 +6884,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6934,7 +6935,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6985,7 +6986,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7036,7 +7037,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7087,7 +7088,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7138,7 +7139,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7189,7 +7190,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7240,7 +7241,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7291,7 +7292,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7342,7 +7343,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7393,7 +7394,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7444,7 +7445,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7495,7 +7496,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7546,7 +7547,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7597,7 +7598,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7648,7 +7649,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7699,7 +7700,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7750,7 +7751,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7801,7 +7802,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7852,7 +7853,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7903,7 +7904,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7954,7 +7955,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8005,7 +8006,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8056,7 +8057,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8107,7 +8108,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8158,7 +8159,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8209,7 +8210,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8260,7 +8261,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8278,7 +8279,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8329,7 +8330,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8380,7 +8381,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8431,7 +8432,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8482,7 +8483,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8533,7 +8534,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8584,7 +8585,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8635,7 +8636,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8653,7 +8654,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8704,7 +8705,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8755,7 +8756,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8772,7 +8773,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8822,7 +8823,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8872,7 +8873,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8922,7 +8923,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10281,7 +10282,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10291,12 +10292,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10310,7 +10311,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10320,7 +10321,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10338,10 +10339,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10351,21 +10352,21 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18520.078912540921</v>
+        <v>-18596.261695054785</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.524629068164851</v>
+        <v>12.572035902336514</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10376,7 +10377,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10388,7 +10389,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10406,7 +10407,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10425,32 +10426,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10467,7 +10468,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10478,7 +10479,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10495,7 +10496,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10506,7 +10507,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10523,7 +10524,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10534,7 +10535,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10551,7 +10552,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10562,7 +10563,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10579,7 +10580,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10589,7 +10590,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10611,7 +10612,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10633,7 +10634,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10654,7 +10655,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10679,7 +10680,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10706,7 +10707,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10727,7 +10728,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10744,7 +10745,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10756,13 +10757,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10784,7 +10785,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10804,7 +10805,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10813,7 +10814,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10833,7 +10834,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10846,7 +10847,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10879,7 +10880,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10896,7 +10897,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10912,7 +10913,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10921,7 +10922,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10937,7 +10938,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10947,7 +10948,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10964,7 +10965,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10974,7 +10975,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10991,7 +10992,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11001,7 +11002,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11021,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11031,7 +11032,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11048,7 +11049,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11058,7 +11059,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11084,7 +11085,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11111,7 +11112,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11138,7 +11139,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11159,7 +11160,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11180,7 +11181,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11201,7 +11202,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11222,7 +11223,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11239,7 +11240,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11257,7 +11258,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11276,7 +11277,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11295,7 +11296,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11312,7 +11313,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11325,7 +11326,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11342,7 +11343,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11355,7 +11356,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11372,7 +11373,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11382,7 +11383,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11399,7 +11400,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11415,14 +11416,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11434,12 +11435,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11447,11 +11448,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.4553187458039964</v>
+        <v>2.531250636538104</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>314.52633133749282</v>
+        <v>324.25320654053206</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11469,7 +11470,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11480,7 +11481,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11495,7 +11496,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11506,12 +11507,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11535,11 +11536,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11549,7 +11550,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11570,7 +11571,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11591,7 +11592,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11612,7 +11613,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11627,7 +11628,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11658,11 +11659,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11672,7 +11673,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11693,7 +11694,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11708,7 +11709,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11730,7 +11731,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11738,15 +11739,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11755,22 +11756,22 @@
         <v>(Numbers in 1000000USD)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11791,7 +11792,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11821,7 +11822,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11842,7 +11843,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11872,7 +11873,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11902,7 +11903,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11933,7 +11934,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11960,12 +11961,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11995,7 +11996,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12025,7 +12026,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12055,7 +12056,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12076,7 +12077,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12107,7 +12108,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12128,28 +12129,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4794899598968118E-2</v>
+        <v>8.2251241156687444E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4794899598968118E-2</v>
+        <v>8.2251241156687444E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4794899598968118E-2</v>
+        <v>8.2251241156687444E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12179,21 +12180,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8022062424251012E-2</v>
+        <v>3.6881485095475619E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8022062424251012E-2</v>
+        <v>3.6881485095475619E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8022062424251012E-2</v>
+        <v>3.6881485095475619E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12210,27 +12211,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12249,24 +12250,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>40.530621422328416</v>
+        <v>40.058703383462785</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>40.530621422328416</v>
+        <v>40.058703383462785</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12274,18 +12275,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.579544335267672</v>
+        <v>14.499998712612724</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.579544335267672</v>
+        <v>14.499998712612724</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12304,69 +12305,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29464.978382045494</v>
+        <v>29121.903089209918</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>20.150882038364173</v>
+        <v>19.916255368472587</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>20.150882038364173</v>
+        <v>19.916255368472587</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.444029149922233</v>
+        <v>29.101197779340808</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2447.736217230809</v>
+        <v>2523.4994810974772</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.67398879900436</v>
+        <v>1.7258027380211622</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12387,31 +12388,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>27017.242164814685</v>
+        <v>26598.40360811244</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.705359253455841</v>
+        <v>15.461884735883711</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>18.476893239359814</v>
+        <v>18.190452630451425</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.476893239359814</v>
+        <v>18.190452630451425</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.476893239359814</v>
+        <v>18.190452630451421</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>27.770040350917874</v>
+        <v>27.375395041319646</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12421,58 +12422,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10599.046932502148</v>
+        <v>10541.218802321464</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1613187165332981</v>
+        <v>6.1277027185012702</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.2486102547450573</v>
+        <v>7.2090620217662007</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.2486102547450573</v>
+        <v>7.2090620217662007</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2486102547450573</v>
+        <v>7.2090620217662007</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.591511142331345</v>
+        <v>10.53372412722995</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12482,58 +12483,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18808.144548658416</v>
+        <v>18569.811205216953</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.93333898499457</v>
+        <v>10.794793727192491</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.862751747052435</v>
+        <v>12.699757326108813</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.862751747052435</v>
+        <v>12.699757326108813</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.862751747052435</v>
+        <v>12.699757326108811</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.180775746624612</v>
+        <v>18.954559584274797</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12542,7 +12543,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E53F172E-65E8-4927-AF13-B10E8DB9BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F706C505-D7DB-41C1-8755-78C37BF3F5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6881485095475619E-2</v>
+        <v>3.6796993198482668E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4823,7 +4823,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>21.65</v>
+        <v>21.7</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>31657.01534835</v>
+        <v>31730.126238299999</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5003,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7824966112772627</v>
+        <v>7.782599925994873</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.531250636538104</v>
+        <v>2.5370628007791356</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.157871248350093</v>
+        <v>12.185787703361189</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6881485095475619E-2</v>
+        <v>3.6796993198482668E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5248,20 +5248,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.461884735883711</v>
+        <v>15.443989280790463</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>31.481704297517592</v>
+        <v>31.448440813814258</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.190452630451425</v>
+        <v>18.169399153871133</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>27.375395041319646</v>
+        <v>27.346470272881966</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10357,11 +10357,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18596.261695054785</v>
+        <v>-18602.303008633116</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.572035902336514</v>
+        <v>12.575795276062919</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11448,11 +11448,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.531250636538104</v>
+        <v>2.5370628007791356</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>324.25320654053206</v>
+        <v>324.99774477980822</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12133,17 +12133,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2251241156687444E-2</v>
+        <v>8.2062811559089566E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2251241156687444E-2</v>
+        <v>8.2062811559089566E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2251241156687444E-2</v>
+        <v>8.2062811559089566E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12184,17 +12184,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6881485095475619E-2</v>
+        <v>3.6796993198482668E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6881485095475619E-2</v>
+        <v>3.6796993198482668E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6881485095475619E-2</v>
+        <v>3.6796993198482668E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12254,14 +12254,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>40.058703383462785</v>
+        <v>40.024373963456092</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>40.058703383462785</v>
+        <v>40.024373963456092</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12279,14 +12279,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.499998712612724</v>
+        <v>14.494284313785982</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.499998712612724</v>
+        <v>14.494284313785982</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12329,21 +12329,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29121.903089209918</v>
+        <v>29096.946264397749</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.916255368472587</v>
+        <v>19.899187579508975</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.916255368472587</v>
+        <v>19.899187579508975</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.101197779340808</v>
+        <v>29.076258698519805</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12353,14 +12353,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2523.4994810974772</v>
+        <v>2529.3274244718359</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.7258027380211622</v>
+        <v>1.7297884256378391</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12392,27 +12392,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>26598.40360811244</v>
+        <v>26567.618839925912</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.461884735883711</v>
+        <v>15.443989280790463</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>18.190452630451425</v>
+        <v>18.169399153871137</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.190452630451425</v>
+        <v>18.169399153871133</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.190452630451421</v>
+        <v>18.169399153871133</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>27.375395041319646</v>
+        <v>27.346470272881966</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12453,27 +12453,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10541.218802321464</v>
+        <v>10537.064544824598</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1277027185012702</v>
+        <v>6.1252878122713295</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.2090620217662007</v>
+        <v>7.206220955613329</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.2090620217662007</v>
+        <v>7.206220955613329</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2090620217662007</v>
+        <v>7.206220955613329</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.53372412722995</v>
+        <v>10.52957282335835</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12514,27 +12514,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18569.811205216953</v>
+        <v>18552.341692375256</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.794793727192491</v>
+        <v>10.784638546530896</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.699757326108813</v>
+        <v>12.687810054742233</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.699757326108813</v>
+        <v>12.687810054742231</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.699757326108811</v>
+        <v>12.687810054742231</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.954559584274797</v>
+        <v>18.938021548120158</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F706C505-D7DB-41C1-8755-78C37BF3F5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{861310C6-1B46-4149-96B7-AB86DC855300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6796993198482668E-2</v>
+        <v>3.6797182579743695E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5003,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782599925994873</v>
+        <v>7.7826399803161621</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5370628007791356</v>
+        <v>2.5370497434709716</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.185787703361189</v>
+        <v>12.185724987694389</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6796993198482668E-2</v>
+        <v>3.6797182579743695E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5248,20 +5248,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.443989280790463</v>
+        <v>15.444109342822289</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>31.448440813814258</v>
+        <v>31.448678163019398</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.169399153871133</v>
+        <v>18.16954040332034</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>27.346470272881966</v>
+        <v>27.346676663495131</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10357,11 +10357,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18602.303008633116</v>
+        <v>-18602.385730619888</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.575795276062919</v>
+        <v>12.575846752097002</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11448,11 +11448,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5370628007791356</v>
+        <v>2.5370497434709716</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>324.99774477980822</v>
+        <v>324.99607213863237</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12133,17 +12133,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2062811559089566E-2</v>
+        <v>8.2063233907694308E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2062811559089566E-2</v>
+        <v>8.2063233907694308E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2062811559089566E-2</v>
+        <v>8.2063233907694308E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12184,17 +12184,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796993198482668E-2</v>
+        <v>3.6797182579743695E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796993198482668E-2</v>
+        <v>3.6797182579743695E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796993198482668E-2</v>
+        <v>3.6797182579743695E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12254,14 +12254,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>40.024373963456092</v>
+        <v>40.024658066550977</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>40.024373963456092</v>
+        <v>40.024658066550977</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12279,14 +12279,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.494284313785982</v>
+        <v>14.494372148498044</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.494284313785982</v>
+        <v>14.494372148498044</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12329,21 +12329,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29096.946264397749</v>
+        <v>29097.152801856475</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.899187579508975</v>
+        <v>19.899328828958179</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.899187579508975</v>
+        <v>19.899328828958179</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.076258698519805</v>
+        <v>29.07646508913297</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12392,27 +12392,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>26567.618839925912</v>
+        <v>26567.825377384637</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.443989280790463</v>
+        <v>15.444109342822289</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>18.169399153871137</v>
+        <v>18.16954040332034</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.169399153871133</v>
+        <v>18.16954040332034</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.169399153871133</v>
+        <v>18.169540403320337</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>27.346470272881966</v>
+        <v>27.346676663495131</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12453,27 +12453,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10537.064544824598</v>
+        <v>10537.128398962563</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1252878122713295</v>
+        <v>6.1253249312404101</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.206220955613329</v>
+        <v>7.2062646249887177</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.206220955613329</v>
+        <v>7.2062646249887177</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.206220955613329</v>
+        <v>7.2062646249887177</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.52957282335835</v>
+        <v>10.529636632096819</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12514,27 +12514,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18552.341692375256</v>
+        <v>18552.476888173602</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.784638546530896</v>
+        <v>10.78471713703135</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.687810054742233</v>
+        <v>12.68790251415453</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.687810054742231</v>
+        <v>12.68790251415453</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.687810054742231</v>
+        <v>12.687902514154526</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.938021548120158</v>
+        <v>18.938156647795974</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{861310C6-1B46-4149-96B7-AB86DC855300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73147D6B-F73B-4190-A49E-D2CD965413F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6797182579743695E-2</v>
+        <v>3.6796110922290431E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5003,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7826399803161621</v>
+        <v>7.7824133237202959</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5370497434709716</v>
+        <v>2.5371236330261104</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.185724987694389</v>
+        <v>12.186079887238913</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6797182579743695E-2</v>
+        <v>3.6796110922290431E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5248,20 +5248,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.444109342822289</v>
+        <v>15.443429949339937</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>31.448678163019398</v>
+        <v>31.447335078110985</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.16954040332034</v>
+        <v>18.168741116870514</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>27.346676663495131</v>
+        <v>27.34550876357477</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10357,11 +10357,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18602.385730619888</v>
+        <v>-18601.917629218558</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.575846752097002</v>
+        <v>12.575555463110488</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11448,11 +11448,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5370497434709716</v>
+        <v>2.5371236330261104</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>324.99607213863237</v>
+        <v>325.00553739064566</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12133,17 +12133,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2063233907694308E-2</v>
+        <v>8.2060843950907097E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2063233907694308E-2</v>
+        <v>8.2060843950907097E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2063233907694308E-2</v>
+        <v>8.2060843950907097E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12184,17 +12184,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6797182579743695E-2</v>
+        <v>3.6796110922290431E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6797182579743695E-2</v>
+        <v>3.6796110922290431E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6797182579743695E-2</v>
+        <v>3.6796110922290431E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12254,14 +12254,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>40.024658066550977</v>
+        <v>40.023050416005248</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>40.024658066550977</v>
+        <v>40.023050416005248</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12279,14 +12279,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.494372148498044</v>
+        <v>14.493875117487518</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.494372148498044</v>
+        <v>14.493875117487518</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12329,21 +12329,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29097.152801856475</v>
+        <v>29095.984070983039</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.899328828958179</v>
+        <v>19.898529542508353</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.899328828958179</v>
+        <v>19.898529542508353</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.07646508913297</v>
+        <v>29.075297189212609</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12353,14 +12353,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2529.3274244718359</v>
+        <v>2529.3274244718355</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.7297884256378391</v>
+        <v>1.7297884256378386</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12392,27 +12392,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>26567.825377384637</v>
+        <v>26566.656646511205</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.444109342822289</v>
+        <v>15.443429949339937</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>18.16954040332034</v>
+        <v>18.168741116870514</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.16954040332034</v>
+        <v>18.168741116870514</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.169540403320337</v>
+        <v>18.168741116870514</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>27.346676663495131</v>
+        <v>27.34550876357477</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12453,27 +12453,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10537.128398962563</v>
+        <v>10536.767067024723</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1253249312404101</v>
+        <v>6.1251148858235274</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.2062646249887177</v>
+        <v>7.2060175127335615</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.2062646249887177</v>
+        <v>7.2060175127335615</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2062646249887177</v>
+        <v>7.2060175127335615</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.529636632096819</v>
+        <v>10.529275557061482</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12514,27 +12514,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18552.476888173602</v>
+        <v>18551.711856767964</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.78471713703135</v>
+        <v>10.784272417581732</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.68790251415453</v>
+        <v>12.687379314802037</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.68790251415453</v>
+        <v>12.687379314802037</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.687902514154526</v>
+        <v>12.687379314802037</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.938156647795974</v>
+        <v>18.937392160318126</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73147D6B-F73B-4190-A49E-D2CD965413F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA8D5F66-264B-4C3E-AE65-100FC386DBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6796110922290431E-2</v>
+        <v>3.6796930071395659E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4615,7 +4615,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -5003,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7824133237202959</v>
+        <v>7.7825865745544434</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5371236330261104</v>
+        <v>2.5370671532450579</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.186079887238913</v>
+        <v>12.185808608726912</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6796110922290431E-2</v>
+        <v>3.6796930071395659E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5248,20 +5248,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.443429949339937</v>
+        <v>15.443949260200149</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>31.447335078110985</v>
+        <v>31.448361697584456</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.168741116870514</v>
+        <v>18.169352070823706</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>27.34550876357477</v>
+        <v>27.346401476160398</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10357,11 +10357,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18601.917629218558</v>
+        <v>-18602.275434637526</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.575555463110488</v>
+        <v>12.575778117384891</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11448,11 +11448,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5371236330261104</v>
+        <v>2.5370671532450579</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>325.00553739064566</v>
+        <v>324.99830233069287</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12133,17 +12133,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2060843950907097E-2</v>
+        <v>8.2062670776221314E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2060843950907097E-2</v>
+        <v>8.2062670776221314E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2060843950907097E-2</v>
+        <v>8.2062670776221314E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12184,17 +12184,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796110922290431E-2</v>
+        <v>3.6796930071395659E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796110922290431E-2</v>
+        <v>3.6796930071395659E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796110922290431E-2</v>
+        <v>3.6796930071395659E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12254,14 +12254,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>40.023050416005248</v>
+        <v>40.024279262630237</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>40.023050416005248</v>
+        <v>40.024279262630237</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12279,14 +12279,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.493875117487518</v>
+        <v>14.494255035581073</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.493875117487518</v>
+        <v>14.494255035581073</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12329,21 +12329,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29095.984070983039</v>
+        <v>29096.87741872777</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.898529542508353</v>
+        <v>19.899140496461548</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.898529542508353</v>
+        <v>19.899140496461548</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.075297189212609</v>
+        <v>29.076189901798237</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12353,14 +12353,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2529.3274244718355</v>
+        <v>2529.3274244718364</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.7297884256378386</v>
+        <v>1.7297884256378393</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12392,27 +12392,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>26566.656646511205</v>
+        <v>26567.549994255933</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.443429949339937</v>
+        <v>15.443949260200149</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>18.168741116870514</v>
+        <v>18.16935207082371</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.168741116870514</v>
+        <v>18.169352070823706</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.168741116870514</v>
+        <v>18.169352070823706</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>27.34550876357477</v>
+        <v>27.346401476160398</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12453,27 +12453,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10536.767067024723</v>
+        <v>10537.04326013553</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1251148858235274</v>
+        <v>6.125275439295347</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.2060175127335615</v>
+        <v>7.2062063991709966</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.2060175127335615</v>
+        <v>7.2062063991709966</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2060175127335615</v>
+        <v>7.2062063991709966</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.529275557061482</v>
+        <v>10.529551553802431</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12514,27 +12514,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18551.711856767964</v>
+        <v>18552.296627195738</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.784272417581732</v>
+        <v>10.784612349747748</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.687379314802037</v>
+        <v>12.687779234997354</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.687379314802037</v>
+        <v>12.68777923499735</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.687379314802037</v>
+        <v>12.68777923499735</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.937392160318126</v>
+        <v>18.937976514981415</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA8D5F66-264B-4C3E-AE65-100FC386DBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFD90D0-F00D-4DE4-807A-ED0D7A61FC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6796930071395659E-2</v>
+        <v>3.6796772253678146E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5003,7 +5003,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825865745544434</v>
+        <v>7.7825531959533691</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5052,7 +5052,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5099,7 +5099,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5370671532450579</v>
+        <v>2.5370780344751984</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.185808608726912</v>
+        <v>12.185860872455033</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6796930071395659E-2</v>
+        <v>3.6796772253678146E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5248,20 +5248,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.443949260200149</v>
+        <v>15.837201984977545</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>31.448361697584456</v>
+        <v>32.467522797247838</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.169352070823706</v>
+        <v>18.6320023352677</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>27.346401476160398</v>
+        <v>28.232628519345951</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10357,11 +10357,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18602.275434637526</v>
+        <v>-18602.206499648553</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.575778117384891</v>
+        <v>12.575735220689825</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11448,11 +11448,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5370671532450579</v>
+        <v>2.5370780344751984</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>324.99830233069287</v>
+        <v>324.99969621627383</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12133,17 +12133,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2062670776221314E-2</v>
+        <v>8.2062318819050684E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2062670776221314E-2</v>
+        <v>8.2062318819050684E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2062670776221314E-2</v>
+        <v>8.2062318819050684E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12184,17 +12184,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796930071395659E-2</v>
+        <v>3.6796772253678146E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796930071395659E-2</v>
+        <v>3.6796772253678146E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796930071395659E-2</v>
+        <v>3.6796772253678146E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12254,14 +12254,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>40.024279262630237</v>
+        <v>40.954834197318434</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>40.024279262630237</v>
+        <v>40.954834197318434</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12279,14 +12279,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.494255035581073</v>
+        <v>14.831255836422022</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.494255035581073</v>
+        <v>14.831255836422022</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12329,21 +12329,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29096.87741872777</v>
+        <v>29773.372870109833</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.899140496461548</v>
+        <v>20.361790760905539</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.899140496461548</v>
+        <v>20.361790760905539</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.076189901798237</v>
+        <v>29.96241694498379</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12353,14 +12353,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2529.3274244718364</v>
+        <v>2529.3274244718359</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.7297884256378393</v>
+        <v>1.7297884256378391</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12392,27 +12392,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>26567.549994255933</v>
+        <v>27244.045445637996</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.443949260200149</v>
+        <v>15.837201984977545</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>18.16935207082371</v>
+        <v>18.6320023352677</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.169352070823706</v>
+        <v>18.6320023352677</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.169352070823706</v>
+        <v>18.6320023352677</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>27.346401476160398</v>
+        <v>28.232628519345951</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12453,27 +12453,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10537.04326013553</v>
+        <v>10782.036328661252</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.125275439295347</v>
+        <v>6.2676920535571075</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.2062063991709966</v>
+        <v>7.3737553571260088</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.2062063991709966</v>
+        <v>7.3737553571260088</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2062063991709966</v>
+        <v>7.3737553571260088</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.529551553802431</v>
+        <v>10.850496159930669</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12514,27 +12514,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18552.296627195738</v>
+        <v>19013.040887149626</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.784612349747748</v>
+        <v>11.052447019267326</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.687779234997354</v>
+        <v>13.002878846196854</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.68777923499735</v>
+        <v>13.002878846196854</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.68777923499735</v>
+        <v>13.002878846196854</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.937976514981415</v>
+        <v>19.541562339638311</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFD90D0-F00D-4DE4-807A-ED0D7A61FC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48329A5C-DA7F-457D-B842-9F9D3E719C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45591</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>1462217799</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>266</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,389 +3806,389 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>3682.4</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>2879.6</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>1499.6</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>1274.2</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>1519.3</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>1185.2</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>173</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>138.30000000000001</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>33.299999999999997</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>25.6</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <v>0.1026</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6796772253678146E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>3.6709997098199248E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4193,10 +4197,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4303,7 +4307,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4315,7 +4319,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4335,7 +4339,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4403,7 +4407,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4415,7 +4419,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4428,7 +4432,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4482,16 +4486,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>949.6</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4591,7 +4595,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4599,19 +4603,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4625,14 +4630,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4644,12 +4649,12 @@
         <f>C25</f>
         <v>3682.4</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>3682.4</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>3682.4</v>
       </c>
@@ -4662,15 +4667,15 @@
         <f>C26</f>
         <v>1499.6</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>1499.6</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>1499.6</v>
       </c>
@@ -4683,15 +4688,15 @@
         <f>C27+C28</f>
         <v>1519.3</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>1519.3</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>1519.3</v>
       </c>
@@ -4704,12 +4709,12 @@
         <f>C29</f>
         <v>173</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>173</v>
       </c>
@@ -4722,15 +4727,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4743,12 +4748,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4761,12 +4766,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>44.4</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>44.4</v>
       </c>
@@ -4775,16 +4780,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.1026</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.1026</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.1026</v>
       </c>
@@ -4903,17 +4908,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>1910.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>21.7</v>
+        <v>21.75</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4923,40 +4928,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>SAMSONITE</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>1462217799</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31730.126238299999</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>31803.237128249999</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4964,11 +4969,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4979,22 +4984,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0001</v>
       </c>
@@ -5003,7 +5008,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7825531959533691</v>
+        <v>7.7820900281270342</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5023,7 +5028,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5034,7 +5039,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5048,11 +5053,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5061,7 +5066,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5072,7 +5077,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5083,10 +5088,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5098,10 +5103,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5123,14 +5128,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.40723441233977836</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5138,7 +5143,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.41258418422767756</v>
       </c>
@@ -5149,7 +5154,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.2057353899630675E-2</v>
       </c>
@@ -5161,46 +5166,46 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5370780344751984</v>
+        <v>2.5430751839795893</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>4.6980230284597004E-2</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.185860872455033</v>
+        <v>12.214665831742357</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.44840034723873545</v>
       </c>
@@ -5209,16 +5214,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.12114381924831638</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6796772253678146E-2</v>
+        <v>3.6709997098199248E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5237,10 +5242,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5248,22 +5253,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.837201984977545</v>
+        <v>15.424335973672809</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>32.467522797247838</v>
+        <v>31.411702253315898</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.6320023352677</v>
-      </c>
-      <c r="G29" s="273">
+        <v>18.146277616085658</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.232628519345951</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>27.314523698535567</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5275,17 +5280,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5295,7 +5300,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -5303,17 +5308,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5323,24 +5328,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5350,7 +5355,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5369,10 +5374,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6354,16 +6359,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6377,11 +6382,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6414,7 +6419,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6478,47 +6483,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3682.4</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2879.6</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6580,47 +6585,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1499.6</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1274.2</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6631,47 +6636,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>1605.3999999999999</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6682,47 +6687,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1519.3</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1185.2</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6733,47 +6738,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6784,47 +6789,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>44.4</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>34.133333333333333</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6832,50 +6837,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.16812404953291338</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.13406954669630036</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6883,50 +6888,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>386.06666666666649</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6934,50 +6939,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.60360904852357244</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6988,47 +6993,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7039,47 +7044,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>173</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>138.30000000000001</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7090,47 +7095,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7141,47 +7146,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7192,47 +7197,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7243,47 +7248,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7294,47 +7299,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>247.76666666666648</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7345,47 +7350,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>9.0857864436237279E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>6.4531532157244026E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7396,7 +7401,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>334.57500000000016</v>
       </c>
@@ -7444,50 +7449,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.80048432665142144</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7604,43 +7609,43 @@
         <f>Fin_Analysis!C28</f>
         <v>1895.1</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7655,43 +7660,43 @@
         <f>Fin_Analysis!C13</f>
         <v>346.1</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7706,43 +7711,43 @@
         <f>Fin_Analysis!C18</f>
         <v>637.70000000000005</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7757,43 +7762,43 @@
         <f>Fin_Analysis!I28</f>
         <v>1180.4000000000001</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7808,43 +7813,43 @@
         <f>Fin_Analysis!I48</f>
         <v>2453.6999999999998</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7859,43 +7864,43 @@
         <f>Fin_Analysis!I15</f>
         <v>218.8</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7910,43 +7915,43 @@
         <f>Fin_Analysis!I34</f>
         <v>2234.7999999999997</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8012,43 +8017,43 @@
         <f>Fin_Analysis!D3</f>
         <v>1607.0000000000005</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8063,43 +8068,43 @@
         <f>Fin_Analysis!D4</f>
         <v>128.10000000000036</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8114,43 +8119,43 @@
         <f>Fin_Analysis!C63</f>
         <v>815.5</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8212,47 +8217,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>0.13989063629790316</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8281,47 +8286,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.44249201277955275</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8332,47 +8337,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.41158494235310461</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8383,47 +8388,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8434,47 +8439,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>4.8027503819975004E-2</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8485,47 +8490,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.1853498171042275E-2</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8536,47 +8541,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8587,47 +8592,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.12114381924831638</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>8.6042042876325359E-2</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8656,47 +8661,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>9.3987616771670654E-2</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8707,47 +8712,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0.17317510319356941</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8775,47 +8780,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.69338497643624419</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8825,47 +8830,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>0.18181447668731671</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8875,47 +8880,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.38780542479264718</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>0.55818646576079689</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8925,47 +8930,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>1.6054727211114874</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10263,8 +10268,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10313,7 +10318,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>1478.9</v>
       </c>
@@ -10357,11 +10362,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18602.206499648553</v>
+        <v>-18607.077887985412</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.575735220689825</v>
+        <v>12.578766576219916</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10410,7 +10415,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10457,7 +10462,7 @@
         <f>Inputs!C48</f>
         <v>815.5</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10485,7 +10490,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10513,7 +10518,7 @@
         <f>Inputs!C50</f>
         <v>346.1</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10541,7 +10546,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10554,7 +10559,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10569,7 +10574,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10596,7 +10601,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10618,7 +10623,7 @@
         <f>Inputs!C54</f>
         <v>95.8</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10640,7 +10645,7 @@
         <f>Inputs!C55</f>
         <v>637.70000000000005</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10661,7 +10666,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10686,7 +10691,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10713,7 +10718,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10734,7 +10739,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10899,7 +10904,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>1180.4000000000001</v>
       </c>
@@ -10928,7 +10933,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10954,7 +10959,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10981,7 +10986,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11008,7 +11013,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11024,7 +11029,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>121.2</v>
       </c>
@@ -11038,7 +11043,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11065,7 +11070,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11091,7 +11096,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11118,7 +11123,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11145,7 +11150,7 @@
         <f>Inputs!C68</f>
         <v>701.8</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11166,7 +11171,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11187,7 +11192,7 @@
         <f>Inputs!C70</f>
         <v>1525.3</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11208,7 +11213,7 @@
         <f>Inputs!C71</f>
         <v>169.3</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11229,7 +11234,7 @@
         <f>Inputs!C72</f>
         <v>949.6</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11375,7 +11380,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>2453.6999999999998</v>
       </c>
@@ -11448,11 +11453,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5370780344751984</v>
+        <v>2.5430751839795893</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>324.99969621627383</v>
+        <v>325.76793106778632</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11484,11 +11489,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>2453.6</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11499,11 +11504,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11515,11 +11520,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11615,8 +11620,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>2453.6</v>
@@ -11696,8 +11701,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>1180.5</v>
@@ -11733,19 +11738,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11755,18 +11760,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11777,17 +11782,17 @@
         <f>Data!C6</f>
         <v>3682.4</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>3682.4</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>3682.4</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11798,23 +11803,23 @@
         <f>Data!C8</f>
         <v>1499.6</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>1499.6</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>1499.6</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.40723441233977836</v>
       </c>
@@ -11824,21 +11829,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11849,23 +11854,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>1519.3</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>1519.3</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>1519.3</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.41258418422767756</v>
       </c>
@@ -11879,54 +11884,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>44.4</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>44.4</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>44.4</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>1.2057353899630675E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.16812404953291338</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.16812404953291338</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.16812404953291338</v>
       </c>
@@ -11940,27 +11945,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11972,23 +11977,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>173</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>173</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>173</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>4.6980230284597004E-2</v>
       </c>
@@ -12002,23 +12007,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12028,27 +12033,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.12114381924831638</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.12114381924831638</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.12114381924831638</v>
       </c>
@@ -12058,49 +12063,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>334.57500000000016</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>9.0857864436237279E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>334.57500000000016</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>9.0857864436237279E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>334.57500000000016</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>9.0857864436237279E-2</v>
       </c>
@@ -12110,69 +12115,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.22881338213008592</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.22881338213008592</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.22881338213008592</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2062318819050684E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>8.1868797212715505E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2062318819050684E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>8.1868797212715505E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2062318819050684E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>8.1868797212715505E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.1026</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.44840034723873545</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.1026</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.44840034723873545</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.1026</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.44840034723873545</v>
       </c>
@@ -12182,21 +12187,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796772253678146E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>3.6709997098199248E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796772253678146E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>3.6709997098199248E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6796772253678146E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>3.6709997098199248E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12218,22 +12223,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12243,9 +12248,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12253,15 +12258,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>40.954834197318434</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>39.985884933680154</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>40.954834197318434</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>39.985884933680154</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12269,24 +12274,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.831255836422022</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>14.487255131038136</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.831255836422022</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>14.487255131038136</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12307,14 +12315,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12329,21 +12337,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29773.372870109833</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>29068.965483681935</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>20.361790760905539</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>19.880051729340174</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>20.361790760905539</v>
+        <v>19.880051729340174</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.96241694498379</v>
+        <v>29.048297811790082</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12353,16 +12361,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2529.3274244718359</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>2535.1553678461951</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.7297884256378391</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>1.7337741132545161</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12373,17 +12381,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12392,27 +12400,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>27244.045445637996</v>
+        <v>26533.810115835739</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.837201984977545</v>
+        <v>15.424335973672809</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>18.6320023352677</v>
+        <v>18.146277616085658</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.6320023352677</v>
+        <v>18.146277616085658</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.6320023352677</v>
+        <v>18.146277616085658</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>28.232628519345951</v>
+        <v>27.314523698535567</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12431,14 +12439,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12453,27 +12461,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10782.036328661252</v>
+        <v>10531.954464829758</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2676920535571075</v>
+        <v>6.1223172780604989</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.3737553571260088</v>
+        <v>7.2027262094829396</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.3737553571260088</v>
+        <v>7.2027262094829396</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.3737553571260088</v>
+        <v>7.2027262094829396</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.850496159930669</v>
+        <v>10.524466376566648</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12492,14 +12500,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12514,27 +12522,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>19013.040887149626</v>
+        <v>18532.882290332749</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.052447019267326</v>
+        <v>10.773326625866654</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.002878846196854</v>
+        <v>12.674501912784299</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.002878846196854</v>
+        <v>12.674501912784299</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.002878846196854</v>
+        <v>12.674501912784299</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.541562339638311</v>
+        <v>18.919495037551108</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48329A5C-DA7F-457D-B842-9F9D3E719C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C876D80-F0E5-456C-BFAF-27CEF4FCF002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>SAMSONITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0001</t>
@@ -3577,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3633,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3642,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3658,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3704,7 +3707,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3722,7 +3725,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3731,7 +3734,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3740,7 +3743,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3749,7 +3752,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4150,7 +4153,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6709997098199248E-2</v>
+        <v>3.7138925210819684E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4606,7 +4609,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4918,10 +4923,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>21.75</v>
+        <v>21.5</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4959,7 +4964,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31803.237128249999</v>
+        <v>31437.682678500001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4997,7 +5002,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5008,7 +5013,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7820900281270342</v>
+        <v>7.782523314158122</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5054,10 +5059,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5104,7 +5109,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5175,7 +5180,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5430751839795893</v>
+        <v>2.5137044783728895</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5191,7 +5196,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.214665831742357</v>
+        <v>12.073595148308248</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5223,7 +5228,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6709997098199248E-2</v>
+        <v>3.7138925210819684E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5253,20 +5258,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.424335973672809</v>
+        <v>15.517057502602125</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>31.411702253315898</v>
+        <v>28.606350025770681</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.146277616085658</v>
+        <v>18.255361767767205</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>27.314523698535567</v>
+        <v>24.87508697893103</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10362,11 +10367,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18607.077887985412</v>
+        <v>-18578.833012922893</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.578766576219916</v>
+        <v>12.561190424967572</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11453,11 +11458,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5430751839795893</v>
+        <v>2.5137044783728895</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>325.76793106778632</v>
+        <v>322.00554367956806</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12138,17 +12143,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1868797212715505E-2</v>
+        <v>8.2825371210175122E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1868797212715505E-2</v>
+        <v>8.2825371210175122E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1868797212715505E-2</v>
+        <v>8.2825371210175122E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12189,17 +12194,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6709997098199248E-2</v>
+        <v>3.7138925210819684E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6709997098199248E-2</v>
+        <v>3.7138925210819684E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6709997098199248E-2</v>
+        <v>3.7138925210819684E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12248,7 +12253,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12259,14 +12264,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.985884933680154</v>
+        <v>40.165208919032509</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.985884933680154</v>
+        <v>40.165208919032509</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12280,21 +12285,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.487255131038136</v>
+        <v>14.518057987451554</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.487255131038136</v>
+        <v>14.518057987451554</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12337,21 +12342,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29068.965483681935</v>
+        <v>29199.330554987711</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.880051729340174</v>
+        <v>19.969207442938337</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.880051729340174</v>
+        <v>19.969207442938337</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.048297811790082</v>
+        <v>26.588932654102162</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12361,14 +12366,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2535.1553678461951</v>
+        <v>2506.0156509744002</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.7337741132545161</v>
+        <v>1.7138456751711308</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12400,27 +12405,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>26533.810115835739</v>
+        <v>26693.31490401331</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.424335973672809</v>
+        <v>15.517057502602125</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>18.146277616085658</v>
+        <v>18.255361767767205</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.146277616085658</v>
+        <v>18.255361767767205</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.146277616085658</v>
+        <v>18.255361767767205</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>27.314523698535567</v>
+        <v>24.87508697893103</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12461,27 +12466,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10531.954464829758</v>
+        <v>10554.347546072438</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1223172780604989</v>
+        <v>6.1353345721115611</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.2027262094829396</v>
+        <v>7.2180406730724247</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.2027262094829396</v>
+        <v>7.2180406730724247</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2027262094829396</v>
+        <v>7.2180406730724247</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.524466376566648</v>
+        <v>9.6107969181701876</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12522,27 +12527,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18532.882290332749</v>
+        <v>18623.831225042872</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.773326625866654</v>
+        <v>10.826196037356842</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.674501912784299</v>
+        <v>12.736701220419814</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.674501912784299</v>
+        <v>12.736701220419814</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.674501912784299</v>
+        <v>12.736701220419814</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.919495037551108</v>
+        <v>17.242941948550609</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C876D80-F0E5-456C-BFAF-27CEF4FCF002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A894A6CF-4C81-471B-AC13-9B6CA6FA7682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7138925210819684E-2</v>
+        <v>3.6210726990991711E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>21.5</v>
+        <v>22.05</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31437.682678500001</v>
+        <v>32241.90246795</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5013,7 +5013,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.782523314158122</v>
+        <v>7.7821299235026045</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5137044783728895</v>
+        <v>2.5781388660773885</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.073595148308248</v>
+        <v>12.383080498502165</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7138925210819684E-2</v>
+        <v>3.6210726990991711E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5258,20 +5258,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.517057502602125</v>
+        <v>15.317317572330005</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>28.606350025770681</v>
+        <v>28.263244910313677</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.255361767767205</v>
+        <v>18.020373614505889</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.87508697893103</v>
+        <v>24.576734704620591</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10367,11 +10367,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18578.833012922893</v>
+        <v>-18642.127941956485</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.561190424967572</v>
+        <v>12.600577437434026</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11458,11 +11458,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5137044783728895</v>
+        <v>2.5781388660773885</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>322.00554367956806</v>
+        <v>330.25958874451442</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12143,17 +12143,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2825371210175122E-2</v>
+        <v>8.0755350021423034E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2825371210175122E-2</v>
+        <v>8.0755350021423034E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2825371210175122E-2</v>
+        <v>8.0755350021423034E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12194,17 +12194,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7138925210819684E-2</v>
+        <v>3.6210726990991711E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7138925210819684E-2</v>
+        <v>3.6210726990991711E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7138925210819684E-2</v>
+        <v>3.6210726990991711E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12264,14 +12264,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.165208919032509</v>
+        <v>39.780746863777274</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.165208919032509</v>
+        <v>39.780746863777274</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12292,14 +12292,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.518057987451554</v>
+        <v>14.452478154632642</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.518057987451554</v>
+        <v>14.452478154632642</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12342,21 +12342,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29199.330554987711</v>
+        <v>28919.834071852823</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.969207442938337</v>
+        <v>19.778061853460468</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.969207442938337</v>
+        <v>19.778061853460468</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.588932654102162</v>
+        <v>26.33442294357517</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12366,14 +12366,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2506.0156509744002</v>
+        <v>2570.1230280923496</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.7138456751711308</v>
+        <v>1.7576882389545783</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12405,27 +12405,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>26693.31490401331</v>
+        <v>26349.711043760475</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.517057502602125</v>
+        <v>15.317317572330005</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>18.255361767767205</v>
+        <v>18.020373614505889</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.255361767767205</v>
+        <v>18.020373614505889</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.255361767767205</v>
+        <v>18.020373614505889</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>24.87508697893103</v>
+        <v>24.576734704620591</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12466,27 +12466,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10554.347546072438</v>
+        <v>10506.672275166209</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1353345721115611</v>
+        <v>6.1076205200065941</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.2180406730724247</v>
+        <v>7.1854359058901105</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.2180406730724247</v>
+        <v>7.1854359058901105</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2180406730724247</v>
+        <v>7.1854359058901105</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.6107969181701876</v>
+        <v>9.5673837801530439</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12527,27 +12527,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18623.831225042872</v>
+        <v>18428.19165946334</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.826196037356842</v>
+        <v>10.7124690461683</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.736701220419814</v>
+        <v>12.602904760197999</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.736701220419814</v>
+        <v>12.602904760197999</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.736701220419814</v>
+        <v>12.602904760197999</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>17.242941948550609</v>
+        <v>17.072059242386818</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A894A6CF-4C81-471B-AC13-9B6CA6FA7682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B680E138-D349-4FEA-9309-AD438F6F5A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -935,6 +935,14 @@
   </si>
   <si>
     <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4153,7 +4161,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6210726990991711E-2</v>
+        <v>3.6853572717715083E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4278,7 +4286,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="C54" s="59">
         <v>95.8</v>
@@ -4394,7 +4402,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4923,10 +4931,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>22.05</v>
+        <v>21.65</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4964,7 +4972,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>32241.90246795</v>
+        <v>31657.01534835</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5013,7 +5021,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7821299235026045</v>
+        <v>7.7766067186991377</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5059,10 +5067,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5109,7 +5117,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5180,7 +5188,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5781388660773885</v>
+        <v>2.5331677701770818</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5196,7 +5204,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.383080498502165</v>
+        <v>12.167079449075901</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5228,7 +5236,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6210726990991711E-2</v>
+        <v>3.6853572717715083E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5258,20 +5266,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>15.317317572330005</v>
+        <v>18.73461145216524</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>28.263244910313677</v>
+        <v>36.263035220192634</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>18.020373614505889</v>
+        <v>22.04071935548852</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.576734704620591</v>
+        <v>31.53307410451534</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10367,11 +10375,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18642.127941956485</v>
+        <v>-18584.097623857277</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.600577437434026</v>
+        <v>12.564466474086666</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11458,11 +11466,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5781388660773885</v>
+        <v>2.5331677701770818</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>330.25958874451442</v>
+        <v>324.49879135968513</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12143,17 +12151,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0755350021423034E-2</v>
+        <v>8.2188992369565797E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0755350021423034E-2</v>
+        <v>8.2188992369565797E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0755350021423034E-2</v>
+        <v>8.2188992369565797E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12194,17 +12202,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6210726990991711E-2</v>
+        <v>3.6853572717715083E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6210726990991711E-2</v>
+        <v>3.6853572717715083E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6210726990991711E-2</v>
+        <v>3.6853572717715083E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12253,7 +12261,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12264,14 +12272,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.780746863777274</v>
+        <v>47.802965034658236</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.780746863777274</v>
+        <v>47.802965034658236</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12292,14 +12300,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.452478154632642</v>
+        <v>17.305826963054447</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.452478154632642</v>
+        <v>17.305826963054447</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12342,21 +12350,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28919.834071852823</v>
+        <v>34751.831625456602</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.778061853460468</v>
+        <v>23.766522093509685</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.778061853460468</v>
+        <v>23.766522093509685</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.33442294357517</v>
+        <v>33.258876842536502</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12366,14 +12374,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2570.1230280923496</v>
+        <v>2523.4994810974772</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.7576882389545783</v>
+        <v>1.7258027380211622</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12405,27 +12413,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>26349.711043760475</v>
+        <v>32228.332144359123</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>15.317317572330005</v>
+        <v>18.73461145216524</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>18.020373614505889</v>
+        <v>22.040719355488523</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>18.020373614505889</v>
+        <v>22.04071935548852</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.020373614505889</v>
+        <v>22.04071935548852</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>24.576734704620591</v>
+        <v>31.53307410451534</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12466,27 +12474,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10506.672275166209</v>
+        <v>12581.001708227092</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.1076205200065941</v>
+        <v>7.3134463684592497</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.1854359058901105</v>
+        <v>8.6040545511285291</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.1854359058901105</v>
+        <v>8.6040545511285291</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.1854359058901105</v>
+        <v>8.6040545511285291</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.5673837801530439</v>
+        <v>12.040516047596048</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12527,27 +12535,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18428.19165946334</v>
+        <v>22404.66692629311</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>10.7124690461683</v>
+        <v>13.024028910312245</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>12.602904760197999</v>
+        <v>15.322386953308527</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>12.602904760197999</v>
+        <v>15.322386953308524</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>12.602904760197999</v>
+        <v>15.322386953308524</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>17.072059242386818</v>
+        <v>21.786795076055693</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B680E138-D349-4FEA-9309-AD438F6F5A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A108102-DE08-4EA9-B9F3-D4C546B78A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -943,6 +943,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4161,7 +4165,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6853572717715083E-2</v>
+        <v>3.6600337947180511E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4931,10 +4935,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>21.65</v>
+        <v>21.8</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4972,7 +4976,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31657.01534835</v>
+        <v>31876.348018200002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5021,7 +5025,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766067186991377</v>
+        <v>7.7766799926757813</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5042,7 +5046,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5053,7 +5057,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5080,7 +5084,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5188,7 +5192,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5331677701770818</v>
+        <v>2.5506945525781659</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5204,7 +5208,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.167079449075901</v>
+        <v>12.251262485221883</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,7 +5240,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6853572717715083E-2</v>
+        <v>3.6600337947180511E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5266,20 +5270,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.73461145216524</v>
+        <v>18.671980865135858</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>36.263035220192634</v>
+        <v>36.149948342494817</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>22.04071935548852</v>
+        <v>21.967036311924538</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>31.53307410451534</v>
+        <v>31.434737689125928</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5314,8 +5318,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
@@ -6341,12 +6345,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8772,118 +8776,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.69338497643624419</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.18181447668731671</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8891,107 +8896,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.38780542479264718</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.18181447668731671</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.55818646576079689</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.38780542479264718</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.55818646576079689</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>1.6054727211114874</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9559,7 +9611,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10242,6 +10296,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10375,11 +10430,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18584.097623857277</v>
+        <v>-18601.732782694246</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.564466474086666</v>
+        <v>12.57544043727084</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11466,11 +11521,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5331677701770818</v>
+        <v>2.5506945525781659</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>324.49879135968513</v>
+        <v>326.743972185264</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12151,17 +12206,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2188992369565797E-2</v>
+        <v>8.162424086548245E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2188992369565797E-2</v>
+        <v>8.162424086548245E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2188992369565797E-2</v>
+        <v>8.162424086548245E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12202,17 +12257,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6853572717715083E-2</v>
+        <v>3.6600337947180511E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6853572717715083E-2</v>
+        <v>3.6600337947180511E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6853572717715083E-2</v>
+        <v>3.6600337947180511E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12272,14 +12327,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.802965034658236</v>
+        <v>47.678812039693739</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.802965034658236</v>
+        <v>47.678812039693739</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12300,14 +12355,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.305826963054447</v>
+        <v>17.284866799884</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.305826963054447</v>
+        <v>17.284866799884</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12350,21 +12405,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>34751.831625456602</v>
+        <v>34661.574797795925</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>23.766522093509685</v>
+        <v>23.70479611279573</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>23.766522093509685</v>
+        <v>23.70479611279573</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.258876842536502</v>
+        <v>33.17249748999712</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12374,14 +12429,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2523.4994810974772</v>
+        <v>2540.9833112205547</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.7258027380211622</v>
+        <v>1.7377598008711934</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12413,27 +12468,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>32228.332144359123</v>
+        <v>32120.591486575369</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>18.73461145216524</v>
+        <v>18.671980865135858</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>22.040719355488523</v>
+        <v>21.967036311924538</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>22.04071935548852</v>
+        <v>21.967036311924538</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>22.04071935548852</v>
+        <v>21.967036311924534</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>31.53307410451534</v>
+        <v>31.434737689125928</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12474,27 +12529,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>12581.001708227092</v>
+        <v>12565.764074728553</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.3134463684592497</v>
+        <v>7.3045885987873067</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.6040545511285291</v>
+        <v>8.5936336456321261</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.6040545511285291</v>
+        <v>8.5936336456321261</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.6040545511285291</v>
+        <v>8.5936336456321261</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>12.040516047596048</v>
+        <v>12.02593302989035</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12535,27 +12590,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>22404.66692629311</v>
+        <v>22343.177780651964</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.024028910312245</v>
+        <v>12.988284731961581</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.322386953308527</v>
+        <v>15.280334978778331</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.322386953308524</v>
+        <v>15.280334978778331</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.322386953308524</v>
+        <v>15.280334978778331</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.786795076055693</v>
+        <v>21.730335359508139</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A108102-DE08-4EA9-B9F3-D4C546B78A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E9F876-6A95-4D1A-AA78-DE469AE24851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6600337947180511E-2</v>
+        <v>3.6681614724520972E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>21.8</v>
+        <v>21.75</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31876.348018200002</v>
+        <v>31803.237128249999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5025,7 +5025,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7766799926757813</v>
+        <v>7.7760732968648272</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5506945525781659</v>
+        <v>2.5450428866204278</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.251262485221883</v>
+        <v>12.22411692086685</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6600337947180511E-2</v>
+        <v>3.6681614724520972E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5270,20 +5270,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.671980865135858</v>
+        <v>18.690684102837203</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>36.149948342494817</v>
+        <v>36.183528631353028</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.967036311924538</v>
+        <v>21.989040120984946</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>31.434737689125928</v>
+        <v>31.46393794030698</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10336,8 +10336,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10430,11 +10430,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18601.732782694246</v>
+        <v>-18594.651863829793</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.57544043727084</v>
+        <v>12.571034140528804</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11521,11 +11521,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5506945525781659</v>
+        <v>2.5450428866204278</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>326.743972185264</v>
+        <v>326.01999377607774</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12206,17 +12206,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.162424086548245E-2</v>
+        <v>8.1805500264233971E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.162424086548245E-2</v>
+        <v>8.1805500264233971E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.162424086548245E-2</v>
+        <v>8.1805500264233971E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12257,17 +12257,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6600337947180511E-2</v>
+        <v>3.6681614724520972E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6600337947180511E-2</v>
+        <v>3.6681614724520972E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6600337947180511E-2</v>
+        <v>3.6681614724520972E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12327,14 +12327,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.678812039693739</v>
+        <v>47.715052917764829</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.678812039693739</v>
+        <v>47.715052917764829</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12355,14 +12355,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.284866799884</v>
+        <v>17.290295136454535</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.284866799884</v>
+        <v>17.290295136454535</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12405,21 +12405,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>34661.574797795925</v>
+        <v>34687.921215675495</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>23.70479611279573</v>
+        <v>23.722814234239458</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>23.70479611279573</v>
+        <v>23.722814234239458</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.17249748999712</v>
+        <v>33.197712053561496</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12428,15 +12428,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>2540.9833112205547</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-2535.1553678461951</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.7377598008711934</v>
+        <v>-1.7337741132545161</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12467,28 +12467,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>32120.591486575369</v>
+        <f>C97+C98+$C$99</f>
+        <v>32152.765847829301</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>18.671980865135858</v>
+        <v>18.690684102837203</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>21.967036311924538</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>21.989040120984942</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>21.967036311924538</v>
+        <v>21.989040120984946</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>21.967036311924534</v>
+        <v>21.989040120984946</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>31.434737689125928</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>31.46393794030698</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12529,27 +12529,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>12565.764074728553</v>
+        <v>12569.710370494282</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.3045885987873067</v>
+        <v>7.3068826150434099</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.5936336456321261</v>
+        <v>8.5963324882863645</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.5936336456321261</v>
+        <v>8.5963324882863645</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.5936336456321261</v>
+        <v>8.5963324882863645</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>12.02593302989035</v>
+        <v>12.029709790962144</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12590,27 +12590,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>22343.177780651964</v>
+        <v>22361.23810916179</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.988284731961581</v>
+        <v>12.998783358940306</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.280334978778331</v>
+        <v>15.292686304635653</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.280334978778331</v>
+        <v>15.292686304635655</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.280334978778331</v>
+        <v>15.292686304635655</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.730335359508139</v>
+        <v>21.74682386563456</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E9F876-6A95-4D1A-AA78-DE469AE24851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B89EA295-EBF3-41A1-ACC9-7F3D1702CBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6681614724520972E-2</v>
+        <v>3.7275378895697195E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>21.75</v>
+        <v>21.4</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31803.237128249999</v>
+        <v>31291.460898599998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5025,7 +5025,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7760732968648272</v>
+        <v>7.7747866312662763</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5450428866204278</v>
+        <v>2.5045025802586713</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.22411692086685</v>
+        <v>12.029397433985455</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6681614724520972E-2</v>
+        <v>3.7275378895697195E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5270,20 +5270,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.690684102837203</v>
+        <v>18.834755508032263</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>36.183528631353028</v>
+        <v>36.443485246942103</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.989040120984946</v>
+        <v>22.158535891802664</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>31.46393794030698</v>
+        <v>31.689987171254003</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10430,11 +10430,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18594.651863829793</v>
+        <v>-18551.198980515201</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.571034140528804</v>
+        <v>12.543994387377221</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11521,11 +11521,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5450428866204278</v>
+        <v>2.5045025802586713</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>326.01999377607774</v>
+        <v>320.82678053113671</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12206,17 +12206,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1805500264233971E-2</v>
+        <v>8.3129683385038039E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1805500264233971E-2</v>
+        <v>8.3129683385038039E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1805500264233971E-2</v>
+        <v>8.3129683385038039E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12257,17 +12257,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6681614724520972E-2</v>
+        <v>3.7275378895697195E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6681614724520972E-2</v>
+        <v>3.7275378895697195E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6681614724520972E-2</v>
+        <v>3.7275378895697195E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12327,14 +12327,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.715052917764829</v>
+        <v>47.999852964605374</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.715052917764829</v>
+        <v>47.999852964605374</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12355,14 +12355,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.290295136454535</v>
+        <v>17.336998234528036</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.290295136454535</v>
+        <v>17.336998234528036</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12405,21 +12405,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>34687.921215675495</v>
+        <v>34894.965344999873</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>23.722814234239458</v>
+        <v>23.86441019174044</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>23.722814234239458</v>
+        <v>23.86441019174044</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.197712053561496</v>
+        <v>33.395861471191779</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12429,14 +12429,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-2535.1553678461951</v>
+        <v>-2494.3597642256814</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.7337741132545161</v>
+        <v>-1.7058742999377765</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12468,27 +12468,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>32152.765847829301</v>
+        <v>32400.60558077419</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>18.690684102837203</v>
+        <v>18.834755508032263</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>21.989040120984942</v>
+        <v>22.158535891802664</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>21.989040120984946</v>
+        <v>22.158535891802664</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>21.989040120984946</v>
+        <v>22.158535891802661</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>31.46393794030698</v>
+        <v>31.689987171254003</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12529,27 +12529,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>12569.710370494282</v>
+        <v>12603.662620097644</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.3068826150434099</v>
+        <v>7.3266193547976339</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.5963324882863645</v>
+        <v>8.6195521821148642</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.5963324882863645</v>
+        <v>8.6195521821148642</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.5963324882863645</v>
+        <v>8.6195521821148642</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>12.029709790962144</v>
+        <v>12.062203436196603</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12590,27 +12590,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>22361.23810916179</v>
+        <v>22502.13410043592</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.998783358940306</v>
+        <v>13.080687431414947</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.292686304635653</v>
+        <v>15.389044036958765</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.292686304635655</v>
+        <v>15.389044036958765</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.292686304635655</v>
+        <v>15.389044036958762</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.74682386563456</v>
+        <v>21.876095303725304</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B89EA295-EBF3-41A1-ACC9-7F3D1702CBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB48E819-4387-4C3F-BABC-46307B34956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7275378895697195E-2</v>
+        <v>3.789425002254386E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>21.4</v>
+        <v>21.05</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31291.460898599998</v>
+        <v>30779.684668950002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5025,7 +5025,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747866312662763</v>
+        <v>7.7746000289916992</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5071,10 +5071,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5121,7 +5121,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5045025802586713</v>
+        <v>2.4636002182086778</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.029397433985455</v>
+        <v>11.832938954378971</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7275378895697195E-2</v>
+        <v>3.789425002254386E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5270,20 +5270,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.834755508032263</v>
+        <v>17.177663400001823</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>36.443485246942103</v>
+        <v>32.425968567262963</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>22.158535891802664</v>
+        <v>20.209015764708028</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>31.689987171254003</v>
+        <v>28.196494406315622</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10430,11 +10430,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18551.198980515201</v>
+        <v>-18510.017997480129</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.543994387377221</v>
+        <v>12.518368386733119</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11521,11 +11521,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5045025802586713</v>
+        <v>2.4636002182086778</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>320.82678053113671</v>
+        <v>315.58718795253253</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12206,17 +12206,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3129683385038039E-2</v>
+        <v>8.450985878110473E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3129683385038039E-2</v>
+        <v>8.450985878110473E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3129683385038039E-2</v>
+        <v>8.450985878110473E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12257,17 +12257,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7275378895697195E-2</v>
+        <v>3.789425002254386E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7275378895697195E-2</v>
+        <v>3.789425002254386E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7275378895697195E-2</v>
+        <v>3.789425002254386E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12316,7 +12316,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12327,14 +12327,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.999852964605374</v>
+        <v>44.022555154753128</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.999852964605374</v>
+        <v>44.022555154753128</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12355,14 +12355,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.336998234528036</v>
+        <v>15.846713074557556</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.336998234528036</v>
+        <v>15.846713074557556</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12405,21 +12405,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>34894.965344999873</v>
+        <v>32003.546712032839</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>23.86441019174044</v>
+        <v>21.886990251329063</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>23.86441019174044</v>
+        <v>21.886990251329063</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.395861471191779</v>
+        <v>29.874468892936658</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12429,14 +12429,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-2494.3597642256814</v>
+        <v>-2453.5641606051681</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.7058742999377765</v>
+        <v>-1.6779744866210375</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12468,27 +12468,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>32400.60558077419</v>
+        <v>29549.982551427671</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>18.834755508032263</v>
+        <v>17.177663400001823</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>22.158535891802664</v>
+        <v>20.209015764708028</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>22.158535891802664</v>
+        <v>20.209015764708028</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>22.158535891802661</v>
+        <v>20.209015764708024</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>31.689987171254003</v>
+        <v>28.196494406315622</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12529,27 +12529,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>12603.662620097644</v>
+        <v>11520.254113624005</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.3266193547976339</v>
+        <v>6.6968245108746638</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.6195521821148642</v>
+        <v>7.8786170716172519</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.6195521821148642</v>
+        <v>7.8786170716172519</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.6195521821148642</v>
+        <v>7.8786170716172519</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>12.062203436196603</v>
+        <v>10.75385413538514</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12590,27 +12590,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>22502.13410043592</v>
+        <v>20535.118332525843</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>13.080687431414947</v>
+        <v>11.937243955438243</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>15.389044036958765</v>
+        <v>14.04381641816264</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>15.389044036958765</v>
+        <v>14.04381641816264</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>15.389044036958762</v>
+        <v>14.043816418162638</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>21.876095303725304</v>
+        <v>19.475174270850381</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB48E819-4387-4C3F-BABC-46307B34956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16F798E-9B7D-41B8-8F94-CB183A4FCFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -959,9 +959,6 @@
     <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
-    <t>C0001</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -975,6 +972,10 @@
   </si>
   <si>
     <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0007</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -3591,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3654,7 +3655,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3670,7 +3671,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3719,7 +3720,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3737,7 +3738,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3746,7 +3747,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3755,7 +3756,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3764,7 +3765,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4938,7 +4939,7 @@
         <v>21.05</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5018,7 +5019,7 @@
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
-        <v>C0001</v>
+        <v>C0007</v>
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16F798E-9B7D-41B8-8F94-CB183A4FCFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFF1B9F9-4670-4DAA-A792-89C33892904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4166,7 +4177,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.789425002254386E-2</v>
+        <v>3.8443734548178066E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4936,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>21.05</v>
+        <v>20.75</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4977,7 +4988,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>30779.684668950002</v>
+        <v>30341.019329250001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5026,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7746000289916992</v>
+        <v>7.7749268213907881</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5193,7 +5204,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.4636002182086778</v>
+        <v>2.4283874530295244</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5209,7 +5220,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.832938954378971</v>
+        <v>11.663808225415661</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5241,7 +5252,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.789425002254386E-2</v>
+        <v>3.8443734548178066E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5271,20 +5282,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>17.177663400001823</v>
+        <v>17.304121462507339</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>32.425968567262963</v>
+        <v>32.649460549435055</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>20.209015764708028</v>
+        <v>20.357789955890986</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.196494406315622</v>
+        <v>28.390835260378314</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10431,11 +10442,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18510.017997480129</v>
+        <v>-18475.725243602232</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.518368386733119</v>
+        <v>12.497028776354838</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11522,11 +11533,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.4636002182086778</v>
+        <v>2.4283874530295244</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>315.58718795253253</v>
+        <v>311.07643273308298</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12207,17 +12218,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.450985878110473E-2</v>
+        <v>8.5735291653799742E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.450985878110473E-2</v>
+        <v>8.5735291653799742E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.450985878110473E-2</v>
+        <v>8.5735291653799742E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12258,17 +12269,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.789425002254386E-2</v>
+        <v>3.8443734548178066E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.789425002254386E-2</v>
+        <v>3.8443734548178066E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.789425002254386E-2</v>
+        <v>3.8443734548178066E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12328,14 +12339,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.022555154753128</v>
+        <v>44.273693344893871</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.022555154753128</v>
+        <v>44.273693344893871</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12356,14 +12367,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.846713074557556</v>
+        <v>15.88937339886836</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.846713074557556</v>
+        <v>15.88937339886836</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12406,21 +12417,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32003.546712032839</v>
+        <v>32186.119322166236</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.886990251329063</v>
+        <v>22.011850316811959</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.886990251329063</v>
+        <v>22.011850316811959</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.874468892936658</v>
+        <v>30.04489562129929</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12430,14 +12441,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-2453.5641606051681</v>
+        <v>-2418.596500359014</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.6779744866210375</v>
+        <v>-1.6540603609209752</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12469,27 +12480,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>29549.982551427671</v>
+        <v>29767.522821807222</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>17.177663400001823</v>
+        <v>17.304121462507339</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>20.209015764708028</v>
+        <v>20.357789955890983</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>20.209015764708028</v>
+        <v>20.357789955890986</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>20.209015764708024</v>
+        <v>20.357789955890986</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>28.196494406315622</v>
+        <v>28.390835260378314</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12530,27 +12541,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11520.254113624005</v>
+        <v>11551.267344842227</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.6968245108746638</v>
+        <v>6.7148527735271335</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.8786170716172519</v>
+        <v>7.8998267923848635</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.8786170716172519</v>
+        <v>7.8998267923848635</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8786170716172519</v>
+        <v>7.8998267923848635</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.75385413538514</v>
+        <v>10.78280417081824</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12591,27 +12602,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>20535.118332525843</v>
+        <v>20659.395083324722</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.937243955438243</v>
+        <v>12.009487118017237</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.04381641816264</v>
+        <v>14.128808374137924</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.04381641816264</v>
+        <v>14.128808374137925</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.043816418162638</v>
+        <v>14.128808374137925</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.475174270850381</v>
+        <v>19.586819715598278</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFF1B9F9-4670-4DAA-A792-89C33892904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE70159C-B293-4665-8551-FF521924B85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>1910.HK</t>
   </si>
   <si>
@@ -970,6 +985,9 @@
     <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
+    <t>C0007</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
@@ -983,10 +1001,6 @@
   </si>
   <si>
     <t>HKD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0007</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1547,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2187,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3603,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3617,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45591</v>
@@ -3654,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>1462217799</v>
@@ -3679,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3703,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3711,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3728,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3851,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>1499.6</v>
@@ -3871,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>1519.3</v>
@@ -3891,7 +3915,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3907,7 +3931,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>173</v>
@@ -3927,7 +3951,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>33.299999999999997</v>
@@ -3947,7 +3971,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3963,7 +3987,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3979,7 +4003,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4011,7 +4035,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4027,7 +4051,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4059,7 +4083,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4107,7 +4131,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4123,7 +4147,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4139,7 +4163,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4155,7 +4179,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0.1026</v>
@@ -4173,11 +4197,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8443734548178066E-2</v>
+        <v>3.8258253207309641E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4222,21 +4246,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>815.5</v>
@@ -4248,7 +4272,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4258,7 +4282,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>346.1</v>
@@ -4271,7 +4295,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4281,7 +4305,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4291,7 +4315,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4302,7 +4326,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C54" s="59">
         <v>95.8</v>
@@ -4314,7 +4338,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>637.70000000000005</v>
@@ -4327,7 +4351,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4335,24 +4359,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4363,7 +4387,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4374,7 +4398,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4385,7 +4409,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4396,7 +4420,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4407,7 +4431,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4418,7 +4442,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4428,31 +4452,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4460,12 +4484,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>701.8</v>
@@ -4478,7 +4502,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4489,7 +4513,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>1525.3</v>
@@ -4501,7 +4525,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>169.3</v>
@@ -4514,7 +4538,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247">
         <v>949.6</v>
@@ -4526,7 +4550,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>92.8</v>
@@ -4534,7 +4558,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>126</v>
@@ -4542,13 +4566,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4562,7 +4586,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59">
         <v>1721</v>
@@ -4570,7 +4594,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>392.6</v>
@@ -4578,13 +4602,13 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120">
         <v>121.2</v>
@@ -4592,7 +4616,7 @@
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>2453.6999999999998</v>
@@ -4600,7 +4624,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>1478.9</v>
@@ -4608,19 +4632,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4628,10 +4652,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4639,18 +4663,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4659,20 +4683,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4690,7 +4714,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4711,7 +4735,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4732,7 +4756,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4750,7 +4774,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4771,7 +4795,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4789,7 +4813,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4807,7 +4831,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4935,62 +4959,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1910.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>20.75</v>
+        <v>20.85</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>SAMSONITE</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>1462217799</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>30341.019329250001</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>30487.24110915</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5013,16 +5037,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5037,7 +5061,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7749268213907881</v>
+        <v>7.7747035026550293</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5047,40 +5071,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5093,29 +5117,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5125,12 +5149,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5140,29 +5164,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.40723441233977836</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5170,7 +5194,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5181,58 +5205,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.2057353899630675E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.4283874530295244</v>
+        <v>2.4401606136726746</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>4.6980230284597004E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.663808225415661</v>
+        <v>11.720355992444105</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5241,18 +5265,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.12114381924831638</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.8443734548178066E-2</v>
+        <v>3.8258253207309641E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5262,62 +5286,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>17.304121462507339</v>
+        <v>17.261195068991235</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>32.649460549435055</v>
+        <v>32.573534429958094</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>20.357789955890986</v>
-      </c>
-      <c r="G29" s="274">
+        <v>20.307288316460276</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.390835260378314</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>28.324812547789652</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5327,25 +5351,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5355,7 +5379,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5365,14 +5389,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5382,7 +5406,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5397,14 +5421,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6357,12 +6381,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6389,16 +6413,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6416,7 +6440,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6449,7 +6473,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6460,7 +6484,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6612,7 +6636,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6663,7 +6687,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6714,7 +6738,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6765,7 +6789,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6816,7 +6840,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6867,7 +6891,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6918,7 +6942,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6969,7 +6993,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7020,7 +7044,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7071,7 +7095,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7122,7 +7146,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7173,7 +7197,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7224,7 +7248,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7275,7 +7299,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7326,7 +7350,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7377,7 +7401,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7428,7 +7452,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7479,7 +7503,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7530,7 +7554,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7683,7 +7707,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7734,7 +7758,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7836,7 +7860,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8040,7 +8064,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8091,7 +8115,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8142,7 +8166,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8193,7 +8217,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8244,7 +8268,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8295,7 +8319,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8313,7 +8337,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8364,7 +8388,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8415,7 +8439,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8466,7 +8490,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8517,7 +8541,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8568,7 +8592,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8619,7 +8643,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8670,7 +8694,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8687,50 +8711,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>9.3987616771670654E-2</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>0.83206796818510476</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8739,11 +8763,11 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0.17317510319356941</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>9.3987616771670654E-2</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8790,167 +8814,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0.17317510319356941</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.69338497643624419</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.18181447668731671</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.28217358951365173</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8958,112 +8983,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.38780542479264718</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.18181447668731671</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.55818646576079689</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.38780542479264718</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.55818646576079689</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>1.6054727211114874</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>0.41862194874568953</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>0.30164311312461978</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9626,7 +9841,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10309,6 +10526,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10348,8 +10566,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10367,7 +10585,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10382,7 +10600,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10396,7 +10614,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10406,7 +10624,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10424,10 +10642,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10436,22 +10654,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in USD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18475.725243602232</v>
+        <f>(E49-I49-E53)</f>
+        <v>-2377.8295746114704</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.497028776354838</v>
+        <v>2.4796699281963095</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10461,8 +10680,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10474,7 +10694,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10492,7 +10712,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10511,32 +10731,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10553,7 +10773,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10564,7 +10784,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10581,7 +10801,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10592,7 +10812,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10609,7 +10829,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10620,7 +10840,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10637,7 +10857,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10648,7 +10868,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10665,7 +10885,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10675,7 +10895,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10697,7 +10917,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10719,7 +10939,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10740,7 +10960,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10765,7 +10985,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10792,7 +11012,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10813,7 +11033,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10830,7 +11050,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10842,13 +11062,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10870,7 +11090,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10890,7 +11110,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10899,7 +11119,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10919,7 +11139,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10932,7 +11152,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10952,7 +11172,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10998,7 +11218,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11007,7 +11227,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11023,7 +11243,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11033,7 +11253,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11050,7 +11270,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11060,7 +11280,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11077,7 +11297,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11087,7 +11307,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11107,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11117,7 +11337,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11134,7 +11354,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11144,7 +11364,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11170,7 +11390,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11197,7 +11417,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11224,7 +11444,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11245,7 +11465,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11266,7 +11486,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11287,7 +11507,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11308,7 +11528,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11325,7 +11545,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11343,7 +11563,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11362,7 +11582,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11381,7 +11601,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11398,7 +11618,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11411,7 +11631,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11428,7 +11648,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11441,7 +11661,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11458,7 +11678,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11485,7 +11705,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11501,14 +11721,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11525,7 +11745,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11533,11 +11753,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.4283874530295244</v>
+        <v>2.4401606136726746</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>311.07643273308298</v>
+        <v>312.58457461147049</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11555,7 +11775,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11566,14 +11786,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>2453.6</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11581,30 +11801,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11621,11 +11841,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11635,7 +11855,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11656,7 +11876,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11677,7 +11897,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11698,7 +11918,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11713,7 +11933,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11744,11 +11964,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11758,7 +11978,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11779,7 +11999,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11794,7 +12014,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11816,21 +12036,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11840,23 +12060,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11877,7 +12097,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11907,7 +12127,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11928,7 +12148,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11958,7 +12178,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11988,7 +12208,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12019,7 +12239,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12046,12 +12266,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12081,7 +12301,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12111,7 +12331,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12141,7 +12361,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12162,7 +12382,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12193,7 +12413,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12214,28 +12434,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5735291653799742E-2</v>
+        <v>8.5321640455689338E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5735291653799742E-2</v>
+        <v>8.5321640455689338E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5735291653799742E-2</v>
+        <v>8.5321640455689338E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12265,21 +12485,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8443734548178066E-2</v>
+        <v>3.8258253207309641E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8443734548178066E-2</v>
+        <v>3.8258253207309641E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8443734548178066E-2</v>
+        <v>3.8258253207309641E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12296,29 +12516,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12335,24 +12555,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.273693344893871</v>
+        <v>44.188149792314249</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.273693344893871</v>
+        <v>44.188149792314249</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12363,18 +12583,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.88937339886836</v>
+        <v>15.874732104944277</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.88937339886836</v>
+        <v>15.874732104944277</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12393,69 +12613,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32186.119322166236</v>
+        <v>32123.930812860694</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>22.011850316811959</v>
+        <v>21.969320052614606</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>22.011850316811959</v>
+        <v>21.969320052614606</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>30.04489562129929</v>
+        <v>29.986844283943981</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-2418.596500359014</v>
+        <v>-2430.2523871077319</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.6540603609209752</v>
+        <v>-1.6620317361543291</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12476,31 +12696,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>29767.522821807222</v>
+        <v>29693.678425752962</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>17.304121462507339</v>
+        <v>17.261195068991235</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>20.357789955890983</v>
+        <v>20.307288316460276</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>20.357789955890986</v>
+        <v>20.307288316460276</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>20.357789955890986</v>
+        <v>20.307288316460276</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>28.390835260378314</v>
+        <v>28.324812547789652</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12510,58 +12730,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11551.267344842227</v>
+        <v>11540.623407152174</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.7148527735271335</v>
+        <v>6.7086653594204728</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.8998267923848635</v>
+        <v>7.8925474816711452</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.8998267923848635</v>
+        <v>7.8925474816711452</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8998267923848635</v>
+        <v>7.8925474816711452</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.78280417081824</v>
+        <v>10.772868335009761</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12571,58 +12791,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>20659.395083324722</v>
+        <v>20617.150916452567</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.009487118017237</v>
+        <v>11.984930214205853</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.128808374137924</v>
+        <v>14.09991789906571</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.128808374137925</v>
+        <v>14.09991789906571</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.128808374137925</v>
+        <v>14.09991789906571</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.586819715598278</v>
+        <v>19.548840441399705</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12631,7 +12851,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12640,6 +12860,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE70159C-B293-4665-8551-FF521924B85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB88BEA1-75FC-4CF8-A6EC-41C36FCDE2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -956,10 +922,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -973,6 +935,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.40723441233977836</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41258418422767756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2057353899630675E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6980230284597004E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12114381924831638</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45591</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>1462217799</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3931,7 +3094,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>173</v>
@@ -4051,7 +3214,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4147,7 +3310,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4179,7 +3342,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.1026</v>
@@ -4197,11 +3360,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8258253207309641E-2</v>
+        <v>3.8259138601289377E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4246,13 +3409,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4315,7 +3478,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4326,7 +3489,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <v>95.8</v>
@@ -4431,7 +3594,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4442,7 +3605,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4624,7 +3787,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>1478.9</v>
@@ -4644,7 +3807,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4652,10 +3815,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4665,16 +3828,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4683,10 +3846,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4735,7 +3898,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4756,7 +3919,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4774,7 +3937,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4813,7 +3976,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4831,7 +3994,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4917,8 +4080,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4959,13 +4122,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1910.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4974,47 +4137,47 @@
         <v>20.85</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>SAMSONITE</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>1462217799</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
         <v>30487.24110915</v>
       </c>
-      <c r="H5" s="279"/>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5037,16 +4200,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5061,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747035026550293</v>
+        <v>7.7748834292093916</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5071,40 +4234,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5117,29 +4280,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5149,12 +4312,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5162,9 +4325,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5172,91 +4335,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.40723441233977836</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>0.41862194874568948</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.41258418422767756</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.28217358951365173</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>1.2057353899630675E-2</v>
+      <c r="B22" s="279" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.70260059911087369</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.16812404953291338</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.4401606136726746</v>
+        <v>2.4401041434123409</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>4.6980230284597004E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.720355992444105</v>
+        <v>11.720084759661155</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5265,18 +4428,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.12114381924831638</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.8258253207309641E-2</v>
+        <v>3.8259138601289377E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5286,62 +4449,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>17.261195068991235</v>
+        <v>17.261797106330238</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>32.573534429958094</v>
+        <v>32.574646203900329</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>20.307288316460276</v>
-      </c>
-      <c r="G29" s="278">
+        <v>20.307996595682635</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.324812547789652</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>28.325779307739417</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5351,7 +4514,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5362,14 +4525,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5379,7 +4542,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5389,14 +4552,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5406,7 +4569,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5421,14 +4584,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6372,7 +5535,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6386,7 +5548,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6413,16 +5575,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6440,7 +5602,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6473,7 +5635,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6840,7 +6002,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6891,7 +6053,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6942,7 +6104,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6993,7 +6155,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7095,7 +6257,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7248,7 +6410,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7758,7 +6920,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8268,7 +7430,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8319,7 +7481,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8388,7 +7550,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8592,7 +7754,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8694,7 +7856,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8712,14 +7874,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>0.83206796818510476</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.70260059911087369</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8763,7 +7925,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8814,7 +7976,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8865,7 +8027,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8916,7 +8078,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8933,7 +8095,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9133,7 +8295,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9183,7 +8345,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9233,7 +8395,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10661,11 +9823,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-2377.8295746114704</v>
+        <v>-2377.8223407711216</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.4796699281963095</v>
+        <v>2.4796654267399632</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10737,7 +9899,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10895,7 +10057,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11307,7 +10469,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11753,11 +10915,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.4401606136726746</v>
+        <v>2.4401041434123409</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>312.58457461147049</v>
+        <v>312.57734077112178</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11775,7 +10937,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11789,11 +10951,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>2453.6</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11804,11 +10966,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11820,11 +10982,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11841,7 +11003,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11918,7 +11080,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11964,7 +11126,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11999,7 +11161,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12038,19 +11200,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12060,18 +11222,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12148,7 +11310,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12178,7 +11340,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12208,7 +11370,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12271,7 +11433,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12301,7 +11463,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12382,7 +11544,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12413,7 +11575,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12434,28 +11596,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5321640455689338E-2</v>
+        <v>8.5323615017005333E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5321640455689338E-2</v>
+        <v>8.5323615017005333E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5321640455689338E-2</v>
+        <v>8.5323615017005333E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12485,21 +11647,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8258253207309641E-2</v>
+        <v>3.8259138601289377E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8258253207309641E-2</v>
+        <v>3.8259138601289377E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8258253207309641E-2</v>
+        <v>3.8259138601289377E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12521,24 +11683,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12555,24 +11717,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.188149792314249</v>
+        <v>44.189574394818898</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.188149792314249</v>
+        <v>44.189574394818898</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12583,18 +11745,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.874732104944277</v>
+        <v>15.875167175952029</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.874732104944277</v>
+        <v>15.875167175952029</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12613,14 +11775,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12637,21 +11799,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32123.930812860694</v>
+        <v>32124.966471346288</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.969320052614606</v>
+        <v>21.970028331836964</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.969320052614606</v>
+        <v>21.970028331836964</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.986844283943981</v>
+        <v>29.987811043893746</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12700,27 +11862,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>29693.678425752962</v>
+        <v>29694.714084238556</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>17.261195068991235</v>
+        <v>17.261797106330238</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>20.307288316460276</v>
+        <v>20.307996595682635</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>20.307288316460276</v>
+        <v>20.307996595682635</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>20.307288316460276</v>
+        <v>20.307996595682635</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>28.324812547789652</v>
+        <v>28.325779307739417</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12730,21 +11892,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12757,31 +11919,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11540.623407152174</v>
+        <v>11540.939695365583</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.7086653594204728</v>
+        <v>6.7088492205262416</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.8925474816711452</v>
+        <v>7.8927637888544018</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.8925474816711452</v>
+        <v>7.8927637888544018</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8925474816711452</v>
+        <v>7.8927637888544018</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.772868335009761</v>
+        <v>10.773163581735936</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12791,21 +11953,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12818,31 +11980,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>20617.150916452567</v>
+        <v>20617.826889802072</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.984930214205853</v>
+        <v>11.985323163428241</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>14.09991789906571</v>
+        <v>14.100380192268519</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.09991789906571</v>
+        <v>14.100380192268519</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>14.09991789906571</v>
+        <v>14.100380192268519</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>19.548840441399705</v>
+        <v>19.549471444737677</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12851,7 +12013,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB88BEA1-75FC-4CF8-A6EC-41C36FCDE2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7156EEC-D1EB-4C5A-8DEC-CD4F6DF801D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -906,10 +902,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -971,6 +963,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45591</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>1462217799</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3094,7 +3114,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>173</v>
@@ -3180,9 +3200,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3198,7 +3218,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3214,7 +3234,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3229,10 +3249,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3244,9 +3265,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3293,10 +3314,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3310,9 +3332,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3326,7 +3348,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3342,7 +3364,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0.1026</v>
@@ -3360,11 +3382,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8259138601289377E-2</v>
+        <v>3.8256350235973326E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3409,13 +3431,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3435,7 +3457,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3445,7 +3467,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>346.1</v>
@@ -3478,7 +3500,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3489,7 +3511,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>95.8</v>
@@ -3527,7 +3549,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3594,7 +3616,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3605,7 +3627,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3652,7 +3674,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>701.8</v>
@@ -3787,7 +3809,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>1478.9</v>
@@ -3807,7 +3829,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3815,10 +3837,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3826,7 +3848,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3834,10 +3856,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3859,7 +3881,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3898,7 +3920,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3919,7 +3941,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3937,7 +3959,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3976,7 +3998,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3994,7 +4016,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4017,28 +4039,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4080,8 +4107,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4122,7 +4149,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4137,12 +4164,12 @@
         <v>20.85</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4162,7 +4189,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4209,7 +4236,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4224,7 +4251,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7748834292093916</v>
+        <v>7.7743167877197266</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4234,40 +4261,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4280,29 +4307,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4312,12 +4339,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4327,7 +4354,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4335,21 +4362,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276">
+        <v>251</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.41862194874568948</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4357,69 +4384,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.28217358951365173</v>
+        <v>249</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.70260059911087369</v>
+        <v>256</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.16812404953291338</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.4401041434123409</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>4.6980230284597004E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.720084759661155</v>
+        <v>11.720938993733236</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4428,18 +4455,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.8259138601289377E-2</v>
+        <v>3.8256350235973326E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4449,40 +4476,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="130">
+        <v>160</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>17.261797106330238</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>32.574646203900329</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>20.307996595682635</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.325779307739417</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4490,21 +4517,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4514,25 +4541,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4542,7 +4569,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4552,14 +4579,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4569,7 +4596,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4584,14 +4611,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5491,27 +5518,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5543,12 +5570,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5575,16 +5602,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5602,7 +5629,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5635,7 +5662,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5646,7 +5673,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6002,7 +6029,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6053,7 +6080,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6104,7 +6131,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6155,7 +6182,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6257,7 +6284,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6410,7 +6437,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6665,7 +6692,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6716,7 +6743,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6770,15 +6797,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>5241.1000000000004</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6818,50 +6845,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>1895.1</v>
+        <f>Fin_Analysis!C13</f>
+        <v>346.1</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6869,50 +6896,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>346.1</v>
+        <f>Fin_Analysis!C18</f>
+        <v>637.70000000000005</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6920,101 +6947,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>637.70000000000005</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>1180.4000000000001</v>
+        <f>Fin_Analysis!I15</f>
+        <v>218.8</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7022,101 +7049,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>2453.6999999999998</v>
+        <f>Fin_Analysis!I34</f>
+        <v>2234.7999999999997</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>218.8</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>2453.6</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7124,50 +7151,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>2234.7999999999997</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7175,50 +7202,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>2453.6</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7226,50 +7253,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>1607.0000000000005</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7277,272 +7304,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>128.10000000000036</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>4425.6000000000004</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>815.5</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>0.13989063629790316</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>4425.6000000000004</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>0.13989063629790316</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.40723441233977836</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.44249201277955275</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.41258418422767756</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.41158494235310461</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.40723441233977836</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.44249201277955275</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7550,50 +7577,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.41258418422767756</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>4.6980230284597004E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.41158494235310461</v>
+        <f t="shared" si="37"/>
+        <v>4.8027503819975004E-2</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7601,50 +7628,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>1.2057353899630675E-2</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.1853498171042275E-2</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7652,50 +7679,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>4.6980230284597004E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.8027503819975004E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7703,221 +7730,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>1.2057353899630675E-2</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.12114381924831638</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.1853498171042275E-2</v>
+        <f t="shared" si="40"/>
+        <v>8.6042042876325359E-2</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.12114381924831638</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>8.6042042876325359E-2</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>9.3987616771670654E-2</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.70260059911087369</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0.17317510319356941</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7925,522 +7952,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>9.3987616771670654E-2</v>
+        <v>245</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0.17317510319356941</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>0.18181447668731671</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.28217358951365173</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.38780542479264718</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.55818646576079689</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.18181447668731671</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.38780542479264718</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.55818646576079689</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>1.6054727211114874</v>
-      </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>0.41862194874568953</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>0.30164311312461978</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9000,12 +8931,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9687,27 +9614,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9821,13 +9751,13 @@
         <v>Adj. Net Asset in USD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>-2377.8223407711216</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>2.4796654267399632</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9847,9 +9777,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9899,7 +9829,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9946,7 +9876,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9974,7 +9904,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10057,7 +9987,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10079,7 +10009,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10147,7 +10077,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10469,7 +10399,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10606,7 +10536,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10893,9 +10823,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10913,13 +10843,13 @@
         <f>MAX(D4,0)</f>
         <v>128.10000000000036</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.4401041434123409</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>312.57734077112178</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10937,7 +10867,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11003,7 +10933,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11038,7 +10968,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11059,7 +10989,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11080,7 +11010,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11095,7 +11025,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11126,7 +11056,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11140,7 +11070,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11161,7 +11091,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11176,7 +11106,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11198,7 +11128,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11206,11 +11136,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11238,7 +11168,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11310,7 +11240,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11340,7 +11270,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11370,7 +11300,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11428,12 +11358,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11463,7 +11393,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11493,7 +11423,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11544,7 +11474,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11575,7 +11505,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11596,28 +11526,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5323615017005333E-2</v>
+        <v>8.5317396544309629E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5323615017005333E-2</v>
+        <v>8.5317396544309629E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5323615017005333E-2</v>
+        <v>8.5317396544309629E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11647,21 +11577,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8259138601289377E-2</v>
+        <v>3.8256350235973326E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8259138601289377E-2</v>
+        <v>3.8256350235973326E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8259138601289377E-2</v>
+        <v>3.8256350235973326E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11678,27 +11608,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11717,24 +11647,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.189574394818898</v>
+        <v>44.185087976581613</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.189574394818898</v>
+        <v>44.185087976581613</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11745,18 +11675,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.875167175952029</v>
+        <v>15.87379702113264</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.875167175952029</v>
+        <v>15.87379702113264</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11775,14 +11705,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11795,49 +11725,49 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32124.966471346288</v>
+        <v>32121.70493200306</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.970028331836964</v>
+        <v>21.967797789064569</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.970028331836964</v>
+        <v>21.967797789064569</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.987811043893746</v>
+        <v>29.98476648272279</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-2430.2523871077319</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.6620317361543291</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11860,29 +11790,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>29694.714084238556</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>17.261797106330238</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>20.307996595682635</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>20.307996595682635</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>20.307996595682635</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>28.325779307739417</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11892,21 +11822,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11919,31 +11849,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11540.939695365583</v>
+        <v>11539.943619294787</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.7088492205262416</v>
+        <v>6.7082701927912778</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.8927637888544018</v>
+        <v>7.8920825797544447</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.8927637888544018</v>
+        <v>7.8920825797544447</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8927637888544018</v>
+        <v>7.8920825797544447</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.773163581735936</v>
+        <v>10.772233770929033</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11953,21 +11883,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11980,31 +11910,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>20617.826889802072</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>11.985323163428241</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>14.100380192268519</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>14.100380192268519</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>14.100380192268519</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>19.549471444737677</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12013,7 +11943,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7156EEC-D1EB-4C5A-8DEC-CD4F6DF801D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB708D26-CE1D-4FF9-8F30-2D65D75E5900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -942,10 +938,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -975,6 +967,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>265</v>
+      <c r="C4" s="187" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>266</v>
+      <c r="C5" s="190" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45591</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>268</v>
+      <c r="C9" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>1462217799</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>269</v>
+      <c r="C11" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>270</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>271</v>
+      <c r="C19" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>271</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>270</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>272</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,403 +3048,407 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>3682.4</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>2879.6</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>1499.6</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>1274.2</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>1519.3</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>1185.2</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>173</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>138.30000000000001</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>33.299999999999997</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>25.6</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="149">
+        <v>3634.1</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>261</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>1607.0000000000005</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>128.10000000000036</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.1026</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8256350235973326E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>3.7359263587612178E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3511,7 +3523,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59">
         <v>95.8</v>
@@ -3543,7 +3555,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3555,7 +3567,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3574,8 +3586,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3627,7 +3639,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3643,7 +3655,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3655,7 +3667,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3668,7 +3680,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3722,16 +3734,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>949.6</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3759,7 +3771,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3795,23 +3807,23 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120">
+      <c r="C81" s="119">
         <v>121.2</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>265</v>
+      </c>
+      <c r="C82" s="214">
         <v>2453.6999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>266</v>
+      </c>
+      <c r="C83" s="214">
         <v>1478.9</v>
       </c>
     </row>
@@ -3829,20 +3841,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3872,10 +3884,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3887,12 +3899,12 @@
         <f>C25</f>
         <v>3682.4</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>3682.4</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>3682.4</v>
       </c>
@@ -3905,75 +3917,75 @@
         <f>C26</f>
         <v>1499.6</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>1499.6</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>1499.6</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>1519.3</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>1519.3</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>1519.3</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>173</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>173</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3986,12 +3998,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4004,12 +4016,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>44.4</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>44.4</v>
       </c>
@@ -4018,16 +4030,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.1026</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.1026</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.1026</v>
       </c>
@@ -4108,7 +4120,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4160,11 +4172,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>20.85</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>21.35</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4202,7 +4214,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>30487.24110915</v>
+        <v>31218.350008650003</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4212,11 +4224,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4238,11 +4250,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
@@ -4250,8 +4262,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>7.7743167877197266</v>
+      <c r="G7" s="132">
+        <v>7.7740767796834307</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4260,10 +4272,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4271,7 +4283,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4279,13 +4291,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4294,12 +4306,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4309,7 +4321,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4320,7 +4332,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4328,13 +4340,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4344,129 +4356,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.41862194874568948</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.28217358951365173</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.70260059911087369</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.16812404953291338</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>2.4988790907363851</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.720938993733236</v>
+        <v>12.002387204104819</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.44840034723873545</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.8256350235973326E-2</v>
+        <v>3.7359263587612178E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4483,10 +4495,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4494,22 +4506,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>17.053982476617193</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>32.207605089103012</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>20.06350879602023</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>28.006613120959141</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4517,23 +4529,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4541,9 +4553,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -4551,17 +4563,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4569,26 +4581,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4596,9 +4608,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4611,16 +4623,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5572,10 +5584,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5601,16 +5613,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5624,11 +5636,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5653,7 +5665,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5661,7 +5673,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5725,47 +5737,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3682.4</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2879.6</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5827,47 +5839,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1499.6</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1274.2</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5878,47 +5890,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>1605.3999999999999</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5929,47 +5941,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1519.3</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1185.2</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5980,47 +5992,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6029,49 +6041,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>44.4</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>34.133333333333333</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6079,50 +6091,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.16812404953291338</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.13406954669630036</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6130,50 +6142,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>386.06666666666649</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6181,50 +6193,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.60360904852357244</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6235,47 +6247,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6284,49 +6296,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>173</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>138.30000000000001</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6337,47 +6349,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6388,47 +6400,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6437,49 +6449,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6490,47 +6502,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6541,47 +6553,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>247.76666666666648</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6592,47 +6604,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>9.0857864436237279E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>6.4531532157244026E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6643,7 +6655,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>334.57500000000016</v>
       </c>
@@ -6691,50 +6703,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.80048432665142144</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6798,7 +6810,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>5241.1000000000004</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6851,43 +6863,43 @@
         <f>Fin_Analysis!C13</f>
         <v>346.1</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6902,43 +6914,43 @@
         <f>Fin_Analysis!C18</f>
         <v>637.70000000000005</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6947,49 +6959,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199" t="str">
+        <v>3634.1</v>
+      </c>
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7004,43 +7016,43 @@
         <f>Fin_Analysis!I15</f>
         <v>218.8</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7055,43 +7067,43 @@
         <f>Fin_Analysis!I34</f>
         <v>2234.7999999999997</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7155,45 +7167,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199" t="str">
+        <v>1607.0000000000005</v>
+      </c>
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7206,45 +7218,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199" t="str">
+        <v>128.10000000000036</v>
+      </c>
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7259,43 +7271,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7357,47 +7369,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.13989063629790316</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7406,7 +7418,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7426,47 +7438,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.44249201277955275</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7475,49 +7487,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.41158494235310461</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7528,47 +7540,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7579,47 +7591,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>4.8027503819975004E-2</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7630,47 +7642,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.1853498171042275E-2</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7679,49 +7691,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7732,47 +7744,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.12114381924831638</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>8.6042042876325359E-2</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7781,9 +7793,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>246</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>264</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7798,50 +7812,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272" t="e">
+        <v>0.70260059911087369</v>
+      </c>
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7850,49 +7864,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="153">
+        <v>253</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>9.3987616771670654E-2</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7901,49 +7915,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="153">
+        <v>254</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.17317510319356941</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7952,49 +7966,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>244</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8003,7 +8017,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8020,49 +8034,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>248</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156" t="str">
+        <v>0.28217358951365173</v>
+      </c>
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8072,47 +8086,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.18181447668731671</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8122,47 +8136,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.38780542479264718</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.55818646576079689</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8172,47 +8186,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8220,149 +8234,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>249</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D57" s="273" t="str">
+        <v>Error</v>
+      </c>
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274" t="e">
+        <v>0.41862194874568953</v>
+      </c>
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274" t="e">
+        <v>0.30164311312461978</v>
+      </c>
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9658,8 +9672,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9695,8 +9709,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>1607.0000000000005</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9708,8 +9722,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>1478.9</v>
       </c>
       <c r="K3" s="24"/>
@@ -9719,8 +9733,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>128.10000000000036</v>
       </c>
       <c r="E4" s="37"/>
@@ -9751,13 +9765,13 @@
         <v>Adj. Net Asset in USD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-2385.351411523332</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>2.4843505983343692</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9777,9 +9791,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9807,11 +9821,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9854,7 +9868,7 @@
         <f>Inputs!C48</f>
         <v>815.5</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9882,7 +9896,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9910,7 +9924,7 @@
         <f>Inputs!C50</f>
         <v>346.1</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9938,7 +9952,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9951,7 +9965,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9966,7 +9980,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9993,7 +10007,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10015,7 +10029,7 @@
         <f>Inputs!C54</f>
         <v>95.8</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10037,7 +10051,7 @@
         <f>Inputs!C55</f>
         <v>637.70000000000005</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10058,7 +10072,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10066,7 +10080,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10083,7 +10097,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10091,7 +10105,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10110,7 +10124,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10131,7 +10145,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10296,7 +10310,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>1180.4000000000001</v>
       </c>
@@ -10325,7 +10339,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10351,7 +10365,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10378,7 +10392,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10405,7 +10419,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10421,7 +10435,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>121.2</v>
       </c>
@@ -10435,7 +10449,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10462,7 +10476,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10470,7 +10484,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10488,7 +10502,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10496,7 +10510,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10515,7 +10529,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10523,7 +10537,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10542,7 +10556,7 @@
         <f>Inputs!C68</f>
         <v>701.8</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10563,7 +10577,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10584,7 +10598,7 @@
         <f>Inputs!C70</f>
         <v>1525.3</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10605,7 +10619,7 @@
         <f>Inputs!C71</f>
         <v>169.3</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10626,7 +10640,7 @@
         <f>Inputs!C72</f>
         <v>949.6</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10772,8 +10786,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>2453.6999999999998</v>
       </c>
       <c r="J48" s="8"/>
@@ -10799,8 +10813,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>3634.1</v>
       </c>
       <c r="J49" s="87"/>
@@ -10823,9 +10837,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10843,13 +10857,13 @@
         <f>MAX(D4,0)</f>
         <v>128.10000000000036</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>2.4988790907363851</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>320.10641152333187</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10870,7 +10884,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10970,7 +10984,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>815.5</v>
       </c>
@@ -10978,7 +10992,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>733.95</v>
       </c>
@@ -11009,11 +11023,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>2453.6</v>
@@ -11090,12 +11104,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>1180.5</v>
       </c>
@@ -11174,17 +11188,17 @@
         <f>Data!C6</f>
         <v>3682.4</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>3682.4</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>3682.4</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11195,23 +11209,23 @@
         <f>Data!C8</f>
         <v>1499.6</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>1499.6</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>1499.6</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.40723441233977836</v>
       </c>
@@ -11221,48 +11235,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>1519.3</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>1519.3</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>1519.3</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.41258418422767756</v>
       </c>
@@ -11276,54 +11290,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>44.4</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>44.4</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>44.4</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>1.2057353899630675E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.16812404953291338</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.16812404953291338</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.16812404953291338</v>
       </c>
@@ -11337,55 +11351,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>173</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>173</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>173</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>4.6980230284597004E-2</v>
       </c>
@@ -11393,29 +11407,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11425,27 +11439,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.12114381924831638</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.12114381924831638</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.12114381924831638</v>
       </c>
@@ -11455,49 +11469,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>334.57500000000016</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>9.0857864436237279E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>334.57500000000016</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>9.0857864436237279E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>334.57500000000016</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>9.0857864436237279E-2</v>
       </c>
@@ -11507,69 +11521,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.22881338213008592</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.22881338213008592</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.22881338213008592</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5317396544309629E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>8.3316758824277873E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5317396544309629E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>8.3316758824277873E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5317396544309629E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>8.3316758824277873E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.1026</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.44840034723873545</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.1026</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.44840034723873545</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.1026</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.44840034723873545</v>
       </c>
@@ -11577,23 +11591,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8256350235973326E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>3.7359263587612178E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8256350235973326E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>3.7359263587612178E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8256350235973326E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>3.7359263587612178E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11615,7 +11629,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11638,27 +11652,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.185087976581613</v>
+        <v>43.777988516061193</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.185087976581613</v>
+        <v>43.777988516061193</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11666,27 +11680,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.87379702113264</v>
+        <v>15.80485014560767</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.87379702113264</v>
+        <v>15.80485014560767</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11700,25 +11714,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11729,21 +11743,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32121.70493200306</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>31825.751492785163</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.967797789064569</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>21.765397408341329</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.967797789064569</v>
-      </c>
-      <c r="I97" s="123">
+        <v>21.765397408341329</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.98476648272279</v>
+        <v>29.70850173328024</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11751,18 +11765,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-2488.5318208513227</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-1.7018886123210997</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11773,46 +11787,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>29337.219671933839</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>17.053982476617193</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>20.06350879602023</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>20.06350879602023</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>20.06350879602023</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>28.006613120959141</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11824,25 +11838,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11853,27 +11867,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11539.943619294787</v>
+        <v>11489.820573420793</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.7082701927912778</v>
-      </c>
-      <c r="E103" s="123">
+        <v>6.6791332276811346</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.8920825797544447</v>
+        <v>7.8578037972719228</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.8920825797544447</v>
-      </c>
-      <c r="H103" s="123">
+        <v>7.8578037972719228</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8920825797544447</v>
+        <v>7.8578037972719228</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.772233770929033</v>
+        <v>10.725445226263799</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11885,25 +11899,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11912,29 +11926,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>20413.520122677317</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>11.866557852149164</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>13.960656296646077</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>13.960656296646077</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>13.960656296646077</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>19.366029173611469</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11945,14 +11959,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB708D26-CE1D-4FF9-8F30-2D65D75E5900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8AF38B-4A9B-46F1-ACF3-ACEB65C0566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3260,9 +3260,7 @@
       <c r="B37" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="149">
-        <v>3634.1</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3326,9 +3324,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>1607.0000000000005</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3344,9 +3340,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>128.10000000000036</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3398,7 +3392,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7359263587612178E-2</v>
+        <v>3.7534733451394471E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4173,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>21.35</v>
+        <v>21.25</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4214,7 +4208,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>31218.350008650003</v>
+        <v>31072.12822875</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4263,7 +4257,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>7.7740767796834307</v>
+        <v>7.7740066846211748</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4383,9 +4377,9 @@
       <c r="B20" s="272" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="273">
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.41862194874568948</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
@@ -4398,9 +4392,9 @@
       <c r="B21" s="274" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="275">
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
-        <v>0.28217358951365173</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
@@ -4409,9 +4403,9 @@
       <c r="B22" s="276" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="277">
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
-        <v>0.70260059911087369</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="141" t="s">
         <v>171</v>
@@ -4428,9 +4422,9 @@
       <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="176">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.4988790907363851</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4446,7 +4440,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.002387204104819</v>
+        <v>11.946277647592478</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4478,7 +4472,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7359263587612178E-2</v>
+        <v>3.7534733451394471E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4508,20 +4502,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>17.053982476617193</v>
+        <v>10.179747382855973</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>32.207605089103012</v>
+        <v>23.712152127969578</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>20.06350879602023</v>
+        <v>11.976173391595264</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>28.006613120959141</v>
+        <v>20.619262719973548</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -6810,7 +6804,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>5241.1000000000004</v>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6963,7 +6957,7 @@
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>3634.1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
@@ -7167,7 +7161,7 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>1607.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
@@ -7218,7 +7212,7 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>128.10000000000036</v>
+        <v>0</v>
       </c>
       <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
@@ -7815,9 +7809,9 @@
       <c r="B48" s="268" t="s">
         <v>252</v>
       </c>
-      <c r="C48" s="269">
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>0.70260059911087369</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
@@ -8036,9 +8030,9 @@
       <c r="B53" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="C53" s="155">
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>0.28217358951365173</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
@@ -8238,7 +8232,7 @@
       </c>
       <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
@@ -8286,9 +8280,9 @@
       <c r="B58" s="268" t="s">
         <v>250</v>
       </c>
-      <c r="C58" s="271">
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>0.41862194874568953</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
@@ -8336,9 +8330,9 @@
       <c r="B59" s="268" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="271">
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>0.30164311312461978</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
@@ -9711,11 +9705,11 @@
       <c r="C3" s="87"/>
       <c r="D3" s="204">
         <f>Inputs!C41</f>
-        <v>1607.0000000000005</v>
+        <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v/>
+        <v>Error!</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
@@ -9724,7 +9718,7 @@
       </c>
       <c r="I3" s="282">
         <f>D3-D4</f>
-        <v>1478.9</v>
+        <v>0</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -9735,7 +9729,7 @@
       <c r="C4" s="87"/>
       <c r="D4" s="198">
         <f>Inputs!C42</f>
-        <v>128.10000000000036</v>
+        <v>0</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="87"/>
@@ -9767,11 +9761,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-2385.351411523332</v>
-      </c>
-      <c r="E6" s="56">
+        <v>1568.855</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>2.4843505983343692</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9793,7 +9787,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>8.3409525349385749</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10314,9 +10308,9 @@
         <f>Inputs!C77</f>
         <v>1180.4000000000001</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="32" t="e">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
-        <v>2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10655,7 +10649,7 @@
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>218.90000000000009</v>
+        <v>-3415.2</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10756,13 +10750,13 @@
       <c r="H47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>0.26174018326408194</v>
-      </c>
-      <c r="J47" s="8" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="8" t="e">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>Liquidity Issue!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10788,7 +10782,7 @@
       </c>
       <c r="I48" s="281">
         <f>I49-I28</f>
-        <v>2453.6999999999998</v>
+        <v>-1180.4000000000001</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10815,7 +10809,7 @@
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>3634.1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="87"/>
     </row>
@@ -10839,7 +10833,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10855,15 +10849,15 @@
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
-        <v>128.10000000000036</v>
+        <v>0</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.4988790907363851</v>
+        <v>0</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>320.10641152333187</v>
+        <v>0</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11111,7 +11105,7 @@
       <c r="D69" s="205"/>
       <c r="E69" s="125">
         <f>I49-E64</f>
-        <v>1180.5</v>
+        <v>-2453.6</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11124,15 +11118,15 @@
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>3245.1000000000004</v>
+        <v>6879.2000000000007</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>-0.10649748852115497</v>
+        <v>0.47803596348412603</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>-345.59500000000003</v>
+        <v>3288.5050000000001</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11544,17 +11538,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3316758824277873E-2</v>
+        <v>8.3708082927532582E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3316758824277873E-2</v>
+        <v>8.3708082927532582E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3316758824277873E-2</v>
+        <v>8.3708082927532582E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11595,17 +11589,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7359263587612178E-2</v>
+        <v>3.7534733451394471E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7359263587612178E-2</v>
+        <v>3.7534733451394471E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7359263587612178E-2</v>
+        <v>3.7534733451394471E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11665,14 +11659,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.777988516061193</v>
+        <v>43.856719349494455</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.777988516061193</v>
+        <v>43.856719349494455</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11693,14 +11687,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.80485014560767</v>
+        <v>15.818079036721601</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.80485014560767</v>
+        <v>15.818079036721601</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11743,21 +11737,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>31825.751492785163</v>
+        <v>31882.987286950254</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.765397408341329</v>
+        <v>21.804540547074993</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.765397408341329</v>
+        <v>21.804540547074993</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.70850173328024</v>
+        <v>29.761929841350042</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11767,14 +11761,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-2488.5318208513227</v>
+        <v>0</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.7018886123210997</v>
+        <v>0</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11785,17 +11779,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <v>-13368.570595208803</v>
       </c>
       <c r="D99" s="211"/>
       <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-10.514067189582967</v>
       </c>
       <c r="F99" s="211"/>
       <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-9.1426671213764941</v>
       </c>
       <c r="I99" s="213"/>
       <c r="K99" s="24"/>
@@ -11806,27 +11800,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>29337.219671933839</v>
+        <v>18514.416691741451</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>17.053982476617193</v>
+        <v>10.179747382855973</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>20.06350879602023</v>
+        <v>11.290473357492026</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>20.06350879602023</v>
+        <v>11.976173391595264</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>20.06350879602023</v>
+        <v>12.6618734256985</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>28.006613120959141</v>
+        <v>20.619262719973548</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11867,27 +11861,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11489.820573420793</v>
+        <v>11499.437721567347</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.6791332276811346</v>
+        <v>6.684723760042429</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.8578037972719228</v>
+        <v>7.8643808941675637</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.8578037972719228</v>
+        <v>7.8643808941675637</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8578037972719228</v>
+        <v>7.8643808941675637</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.725445226263799</v>
+        <v>10.734422581046635</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11928,27 +11922,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>20413.520122677317</v>
+        <v>14004.284412013738</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.866557852149164</v>
+        <v>8.4322355714492012</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>13.960656296646077</v>
+        <v>9.5774271258297947</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.960656296646077</v>
+        <v>9.9202771428814138</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>13.960656296646077</v>
+        <v>10.263127159933031</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>19.366029173611469</v>
+        <v>15.676842650510093</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8AF38B-4A9B-46F1-ACF3-ACEB65C0566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A04BF032-A629-492B-A3AB-7C7A8B9CFBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -962,10 +955,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -983,6 +972,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>1462217799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>1462217799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>274</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,413 +3039,414 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>3682.4</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>2879.6</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>1499.6</v>
+      </c>
+      <c r="D26" s="148">
+        <v>1274.2</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>1519.3</v>
+      </c>
+      <c r="D27" s="148">
+        <v>1185.2</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>1499.6</v>
-      </c>
-      <c r="D26" s="149">
-        <v>1274.2</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>173</v>
+      </c>
+      <c r="D29" s="148">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D30" s="148">
+        <v>25.6</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>1519.3</v>
-      </c>
-      <c r="D27" s="149">
-        <v>1185.2</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>173</v>
-      </c>
-      <c r="D29" s="149">
-        <v>138.30000000000001</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="D30" s="149">
-        <v>25.6</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.1026</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7534733451394471E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>3.7618419494269029E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet- Error</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <v>815.5</v>
@@ -3459,21 +3454,21 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <v>346.1</v>
@@ -3482,42 +3477,42 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C54" s="59">
         <v>95.8</v>
@@ -3525,11 +3520,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <v>637.70000000000005</v>
@@ -3538,149 +3533,149 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <v>701.8</v>
@@ -3689,22 +3684,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>1525.3</v>
@@ -3712,11 +3707,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>169.3</v>
@@ -3725,23 +3720,23 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <v>949.6</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>92.8</v>
@@ -3749,7 +3744,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>126</v>
@@ -3757,27 +3752,27 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>1180.4000000000001</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59">
         <v>1721</v>
@@ -3785,7 +3780,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>392.6</v>
@@ -3793,79 +3788,79 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119">
+      <c r="C81" s="118">
         <v>121.2</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="214">
+        <v>262</v>
+      </c>
+      <c r="C82" s="212">
         <v>2453.6999999999998</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="214">
+        <v>263</v>
+      </c>
+      <c r="C83" s="212">
         <v>1478.9</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3874,166 +3869,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>3682.4</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>3682.4</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>3682.4</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>1499.6</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>1499.6</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>1499.6</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>1519.3</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>1519.3</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>1519.3</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>173</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>173</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>44.4</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>44.4</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.1026</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.1026</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.1026</v>
       </c>
@@ -4046,32 +4041,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4130,13 +4125,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4147,82 +4142,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1910.HK : SAMSONITE</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1910.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>21.25</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>21.2</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>SAMSONITE</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>1462217799</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>31072.12822875</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>30999.0173388</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4233,31 +4228,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>7.7740066846211748</v>
+      <c r="G7" s="131">
+        <v>7.7730067571004229</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4266,280 +4261,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.16812404953291338</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.946277647592478</v>
+        <v>11.919701924400277</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.44840034723873545</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7534733451394471E-2</v>
+        <v>3.7618419494269029E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.179747382855973</v>
-      </c>
-      <c r="D29" s="128">
+        <v>10.194400645386173</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>23.712152127969578</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>23.738580125462054</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.976173391595264</v>
-      </c>
-      <c r="G29" s="286">
+        <v>11.993412523983732</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.619262719973548</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>20.642243587358308</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4547,9 +4542,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -4557,17 +4552,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4575,26 +4570,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4602,9 +4597,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4617,16 +4612,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5578,10 +5573,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5607,59 +5602,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5667,19 +5662,19 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5728,928 +5723,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>3682.4</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2879.6</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.27878872065564675</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1499.6</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1274.2</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>1605.3999999999999</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1519.3</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1185.2</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>44.4</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>34.133333333333333</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.16812404953291338</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.13406954669630036</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>386.06666666666649</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.60360904852357244</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>173</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>138.30000000000001</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>247.76666666666648</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>9.0857864436237279E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>6.4531532157244026E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>334.57500000000016</v>
       </c>
@@ -6693,63 +6688,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.80048432665142144</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6795,11 +6790,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6846,266 +6841,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>346.1</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>637.70000000000005</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>260</v>
+      <c r="B30" s="93" t="s">
+        <v>258</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>218.8</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>2234.7999999999997</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7152,169 +7147,169 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>4425.6000000000004</v>
+        <v>-815.5</v>
       </c>
       <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7356,63 +7351,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>0.13989063629790316</v>
-      </c>
-      <c r="D38" s="154" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7425,372 +7420,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.44249201277955275</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.41158494235310461</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>4.8027503819975004E-2</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.1853498171042275E-2</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.12114381924831638</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>8.6042042876325359E-2</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>264</v>
+      <c r="B47" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>261</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7802,216 +7797,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>9.3987616771670654E-2</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.17317510319356941</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>247</v>
+      <c r="B52" s="101" t="s">
+        <v>245</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8027,350 +8022,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.18181447668731671</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.38780542479264718</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.55818646576079689</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9649,7 +9644,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9667,7 +9662,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9685,38 +9680,38 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v>Error!</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+        <v/>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9724,28 +9719,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9758,7 +9753,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in USD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>1568.855</v>
@@ -9767,16 +9762,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>1.0652321247034902</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9784,297 +9779,297 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>8.3409525349385749</v>
+        <v>8.3398796843060339</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>0.98407319552693984</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>815.5</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>733.95</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>92.8</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>126</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>346.1</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>207.66</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>218.8</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>95.8</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>9.58</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>637.70000000000005</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>318.85000000000002</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10085,21 +10080,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10112,45 +10107,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10158,17 +10153,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10178,19 +10173,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.81061466942148763</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>941.61</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.74140184561116185</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10200,17 +10195,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.1</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>9.58</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>7.5430695096217444E-3</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10219,7 +10214,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10229,17 +10224,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>318.85000000000002</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.25105508487921641</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10252,7 +10247,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10262,17 +10257,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10299,12 +10294,12 @@
         <f>SUM(E24:E27)</f>
         <v>1270.04</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>1180.4000000000001</v>
       </c>
@@ -10314,171 +10309,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>1721</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>392.6</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>121.2</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>2234.7999999999997</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10486,25 +10481,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10512,26 +10507,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10539,113 +10534,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>701.8</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>70.179999999999993</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>1525.3</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>76.265000000000001</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>169.3</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>152.37</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>949.6</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10653,17 +10648,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10673,16 +10668,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10692,16 +10687,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10711,14 +10706,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>70.179999999999993</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10731,7 +10726,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10741,14 +10736,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>8.6466606156871642E-2</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>228.63499999999999</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10761,13 +10756,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>3346</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>8.9305140466228325E-2</v>
       </c>
@@ -10775,12 +10770,12 @@
         <f>SUM(E30:E42)</f>
         <v>298.815</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>-1180.4000000000001</v>
       </c>
@@ -10791,63 +10786,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>5241.1000000000004</v>
-      </c>
-      <c r="D49" s="56">
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="56" t="e">
         <f>E49/C49</f>
-        <v>0.29933697124649405</v>
-      </c>
-      <c r="E49" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>1568.855</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10855,45 +10850,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>2453.6</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10901,61 +10896,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10969,35 +10964,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>815.5</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>733.95</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11011,29 +11006,29 @@
         <f>E61+E62</f>
         <v>733.95</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>2453.6</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11047,9 +11042,9 @@
         <f>E63-E64</f>
         <v>-1719.6499999999999</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11057,100 +11052,100 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>4425.6000000000004</v>
+        <v>-815.5</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
-        <v>0.18865351590744756</v>
+        <v>-1.0237952176578786</v>
       </c>
       <c r="E68" s="68">
         <f>E49-E63</f>
         <v>834.90499999999997</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>-2453.6</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>6879.2000000000007</v>
+        <v>1638.1</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0.47803596348412603</v>
+        <v>2.0075117514193273</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
         <v>3288.5050000000001</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11160,66 +11155,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>3682.4</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>3682.4</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>3682.4</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>1499.6</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>1499.6</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.40723441233977836</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>1499.6</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.40723441233977836</v>
       </c>
@@ -11227,50 +11222,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>2182.8000000000002</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>1519.3</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>1519.3</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.41258418422767756</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>1519.3</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.41258418422767756</v>
       </c>
@@ -11278,60 +11273,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>44.4</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>44.4</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>1.2057353899630675E-2</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>44.4</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>1.2057353899630675E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.16812404953291338</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.16812404953291338</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>619.10000000000025</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.16812404953291338</v>
       </c>
@@ -11339,61 +11334,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>173</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>173</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>173</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>4.6980230284597004E-2</v>
       </c>
@@ -11401,59 +11396,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.12114381924831638</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.12114381924831638</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>446.10000000000025</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.12114381924831638</v>
       </c>
@@ -11461,184 +11456,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>334.57500000000016</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>9.0857864436237279E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>334.57500000000016</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>9.0857864436237279E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>334.57500000000016</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>9.0857864436237279E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.22881338213008592</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.22881338213008592</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.22881338213008592</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3708082927532582E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>8.3894715349630153E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3708082927532582E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>8.3894715349630153E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3708082927532582E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>8.3894715349630153E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.1026</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.44840034723873545</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.1026</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.44840034723873545</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.1026</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.44840034723873545</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7534733451394471E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>3.7618419494269029E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7534733451394471E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>3.7618419494269029E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7534733451394471E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>3.7618419494269029E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11646,55 +11641,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.856719349494455</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>43.888850707819465</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.856719349494455</v>
+        <v>43.888850707819465</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.818079036721601</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>15.822423969399482</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.818079036721601</v>
+        <v>15.822423969399482</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11704,123 +11699,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>31882.987286950254</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>31906.346163404851</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.804540547074993</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>21.820515510907722</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.804540547074993</v>
-      </c>
-      <c r="I97" s="122">
+        <v>21.820515510907722</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.761929841350042</v>
+        <v>29.783734737985277</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="91">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="212"/>
+      <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="B99" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-13368.570595208803</v>
-      </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+        <v>-13366.85106984774</v>
+      </c>
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-10.514067189582967</v>
-      </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+        <v>-10.512714823221012</v>
+      </c>
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-9.1426671213764941</v>
-      </c>
-      <c r="I99" s="213"/>
+        <v>-9.1414911506269672</v>
+      </c>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>18514.416691741451</v>
-      </c>
-      <c r="D100" s="109">
+        <v>18539.495093557111</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.179747382855973</v>
-      </c>
-      <c r="E100" s="109">
+        <v>10.194400645386173</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.290473357492026</v>
-      </c>
-      <c r="F100" s="109">
+        <v>11.30780068768671</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>11.976173391595264</v>
-      </c>
-      <c r="H100" s="109">
+        <v>11.993412523983732</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.6618734256985</v>
-      </c>
-      <c r="I100" s="109">
+        <v>12.679024360280756</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>20.619262719973548</v>
+        <v>20.642243587358308</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11830,58 +11825,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11499.437721567347</v>
-      </c>
-      <c r="D103" s="109">
+        <v>11502.596403643578</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.684723760042429</v>
-      </c>
-      <c r="E103" s="122">
+        <v>6.6865599295697269</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.8643808941675637</v>
-      </c>
-      <c r="F103" s="109">
+        <v>7.8665410936114437</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>7.8643808941675637</v>
-      </c>
-      <c r="H103" s="122">
+        <v>7.8665410936114437</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8643808941675637</v>
-      </c>
-      <c r="I103" s="109">
+        <v>7.8665410936114437</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.734422581046635</v>
+        <v>10.737371127664861</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11891,58 +11886,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14004.284412013738</v>
-      </c>
-      <c r="D106" s="109">
+        <v>14018.531918361763</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>8.4322355714492012</v>
-      </c>
-      <c r="E106" s="122">
+        <v>8.4404802874779499</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>9.5774271258297947</v>
-      </c>
-      <c r="F106" s="109">
+        <v>9.5871708906490767</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>9.9202771428814138</v>
-      </c>
-      <c r="H106" s="122">
+        <v>9.929976808797587</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>10.263127159933031</v>
-      </c>
-      <c r="I106" s="122">
+        <v>10.272782726946101</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>15.676842650510093</v>
+        <v>15.689807357511585</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11951,15 +11946,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A04BF032-A629-492B-A3AB-7C7A8B9CFBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E79518-39D3-4E06-B9D4-62C5F166C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -980,6 +980,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3386,7 +3403,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7618419494269029E-2</v>
+        <v>3.7795765244000329E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3851,11 +3868,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3869,10 +3886,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4094,8 +4111,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4108,8 +4128,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4152,60 +4172,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1910.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>SAMSONITE</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>1462217799</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>30999.0173388</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>30852.795558900001</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4228,11 +4248,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4252,7 +4272,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>7.7730067571004229</v>
+        <v>7.7728133201599121</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4373,7 +4393,7 @@
         <v>248</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4385,20 +4405,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>253</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.16812404953291338</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4407,12 +4427,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.16812404953291338</v>
+      <c r="B23" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4423,10 +4443,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>4.6980230284597004E-2</v>
       </c>
@@ -4435,7 +4455,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.919701924400277</v>
+        <v>11.863772153942941</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4467,7 +4487,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7618419494269029E-2</v>
+        <v>3.7795765244000329E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4486,10 +4506,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4497,22 +4517,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.194400645386173</v>
+        <v>10.228010136442617</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>23.738580125462054</v>
+        <v>23.800524046310596</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.993412523983732</v>
-      </c>
-      <c r="G29" s="285">
+        <v>12.032953101697196</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.642243587358308</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>20.696107866357043</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5543,7 +5563,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7784,7 +7804,7 @@
       <c r="B47" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>261</v>
       </c>
       <c r="D47" s="36"/>
@@ -9711,7 +9731,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9782,7 +9802,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>8.3398796843060339</v>
+        <v>8.3396721403194185</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10758,7 +10778,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>3346</v>
       </c>
@@ -10775,7 +10795,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>-1180.4000000000001</v>
       </c>
@@ -10884,11 +10904,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>2453.6</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10899,11 +10919,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10915,11 +10935,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11133,19 +11153,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11155,18 +11175,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000USD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11533,17 +11553,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3894715349630153E-2</v>
+        <v>8.4290222959790134E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3894715349630153E-2</v>
+        <v>8.4290222959790134E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3894715349630153E-2</v>
+        <v>8.4290222959790134E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11584,17 +11604,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7618419494269029E-2</v>
+        <v>3.7795765244000329E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7618419494269029E-2</v>
+        <v>3.7795765244000329E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7618419494269029E-2</v>
+        <v>3.7795765244000329E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11625,15 +11645,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11654,14 +11674,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.888850707819465</v>
+        <v>43.967889046302936</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.888850707819465</v>
+        <v>43.967889046302936</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11682,14 +11702,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.822423969399482</v>
+        <v>15.835556042393993</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.822423969399482</v>
+        <v>15.835556042393993</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11732,21 +11752,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>31906.346163404851</v>
+        <v>31963.805507797861</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.820515510907722</v>
+        <v>21.859811533998336</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.820515510907722</v>
+        <v>21.859811533998336</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.783734737985277</v>
+        <v>29.837371524311592</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11774,17 +11794,17 @@
       </c>
       <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-13366.85106984774</v>
+        <v>-13366.518426012992</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-10.512714823221012</v>
+        <v>-10.512453206647731</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-9.1414911506269672</v>
+        <v>-9.1412636579545499</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11795,27 +11815,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>18539.495093557111</v>
+        <v>18597.287081784867</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.194400645386173</v>
+        <v>10.228010136442617</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.30780068768671</v>
+        <v>11.347358327350605</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>11.993412523983732</v>
+        <v>12.032953101697196</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.679024360280756</v>
+        <v>12.718547876043784</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>20.642243587358308</v>
+        <v>20.696107866357043</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11856,27 +11876,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11502.596403643578</v>
+        <v>11512.143166888651</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.6865599295697269</v>
+        <v>6.6921095465719693</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.8665410936114437</v>
+        <v>7.8730700547905528</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>7.8665410936114437</v>
+        <v>7.8730700547905528</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8665410936114437</v>
+        <v>7.8730700547905528</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.737371127664861</v>
+        <v>10.746282779993882</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11917,27 +11937,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14018.531918361763</v>
+        <v>14052.226242385788</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>8.4404802874779499</v>
+        <v>8.4600598415072934</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>9.5871708906490767</v>
+        <v>9.6102141910705789</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>9.929976808797587</v>
+        <v>9.9530115782438742</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>10.272782726946101</v>
+        <v>10.295808965417169</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>15.689807357511585</v>
+        <v>15.721195323175461</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E79518-39D3-4E06-B9D4-62C5F166C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{167476D4-F177-4FAA-AE1A-4A1D5FA0513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7795765244000329E-2</v>
+        <v>3.8422998846582616E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>21.1</v>
+        <v>20.75</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>30852.795558900001</v>
+        <v>30341.019329250001</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4272,7 +4272,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>7.7728133201599121</v>
+        <v>7.7707331975301104</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.863772153942941</v>
+        <v>11.670102821206957</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7795765244000329E-2</v>
+        <v>3.8422998846582616E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4517,20 +4517,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.228010136442617</v>
+        <v>10.345404629370627</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>23.800524046310596</v>
+        <v>24.016000129783286</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.032953101697196</v>
+        <v>12.171064269847797</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.696107866357043</v>
+        <v>20.8834783737246</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9682,7 +9682,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9802,7 +9802,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>8.3396721403194185</v>
+        <v>8.3374403176794463</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11553,17 +11553,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4290222959790134E-2</v>
+        <v>8.5689047930477186E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4290222959790134E-2</v>
+        <v>8.5689047930477186E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4290222959790134E-2</v>
+        <v>8.5689047930477186E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11604,17 +11604,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7795765244000329E-2</v>
+        <v>3.8422998846582616E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7795765244000329E-2</v>
+        <v>3.8422998846582616E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7795765244000329E-2</v>
+        <v>3.8422998846582616E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11674,14 +11674,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.967889046302936</v>
+        <v>44.24039043726512</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.967889046302936</v>
+        <v>44.24039043726512</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11702,14 +11702,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.835556042393993</v>
+        <v>15.87921754126608</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.835556042393993</v>
+        <v>15.87921754126608</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11752,21 +11752,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>31963.805507797861</v>
+        <v>32161.90875201199</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.859811533998336</v>
+        <v>21.995292885921156</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.859811533998336</v>
+        <v>21.995292885921156</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.837371524311592</v>
+        <v>30.022295691002146</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11793,18 +11793,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>-13366.518426012992</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-13362.941343132654</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>-10.512453206647731</v>
+        <v>-10.509639914869174</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-9.1412636579545499</v>
+        <v>-9.1388173172775442</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11815,27 +11815,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>18597.287081784867</v>
+        <v>18798.967408879336</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.228010136442617</v>
+        <v>10.345404629370627</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.347358327350605</v>
+        <v>11.485652971051982</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>12.032953101697196</v>
+        <v>12.171064269847797</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>12.718547876043784</v>
+        <v>12.856475568643614</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>20.696107866357043</v>
+        <v>20.8834783737246</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11876,27 +11876,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>11512.143166888651</v>
+        <v>11543.884232661825</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.6921095465719693</v>
+        <v>6.7105609058193059</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.8730700547905528</v>
+        <v>7.8947775362580073</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>7.8730700547905528</v>
+        <v>7.8947775362580073</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8730700547905528</v>
+        <v>7.8947775362580073</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.746282779993882</v>
+        <v>10.775912229835853</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11937,27 +11937,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14052.226242385788</v>
+        <v>14169.205220035634</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>8.4600598415072934</v>
+        <v>8.5279827675949669</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>9.6102141910705789</v>
+        <v>9.6902152536549941</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>9.9530115782438742</v>
+        <v>10.032920903052903</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>10.295808965417169</v>
+        <v>10.375626552450811</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>15.721195323175461</v>
+        <v>15.829695301780227</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1943BCB-6CAA-4DA3-B6E0-FBCE4477E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D45BB3-D466-4B06-AECC-54A2D20BDA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7056542600587355E-2</v>
+        <v>3.6798851471299659E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4395,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>21.5</v>
+        <v>21.65</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>31437.682678500001</v>
+        <v>31657.01534835</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4485,7 +4485,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7652599016825361</v>
+        <v>7.7650597890218096</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4616,7 +4616,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.100436677857481</v>
+        <v>12.185172343991606</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7056542600587355E-2</v>
+        <v>3.6798851471299659E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4735,20 +4735,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.02320544299719</v>
+        <v>10.610456514271588</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>23.390969232577209</v>
+        <v>23.426788964700581</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.321418168231988</v>
+        <v>12.482890016790105</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.339973245719314</v>
+        <v>20.371120838870073</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10007,7 +10007,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>8.3315678631362058</v>
+        <v>8.3313531565797962</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-9.1323804149154473</v>
+        <v>-9.1321450712222898</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-9.1323804149154473</v>
+        <v>-9.1321450712222898</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11274,7 +11274,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-9.1323804149154473</v>
+        <v>-9.1321450712222898</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11785,17 +11785,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2641645638284633E-2</v>
+        <v>8.2066955786069831E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2641645638284633E-2</v>
+        <v>8.2066955786069831E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2641645638284633E-2</v>
+        <v>8.2066955786069831E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11836,17 +11836,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7056542600587355E-2</v>
+        <v>3.6798851471299659E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7056542600587355E-2</v>
+        <v>3.6798851471299659E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7056542600587355E-2</v>
+        <v>3.6798851471299659E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11899,21 +11899,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>37.191170920144344</v>
+        <v>43.475556182338408</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>37.191170920144344</v>
+        <v>43.475556182338408</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11934,14 +11934,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.657466571742862</v>
+        <v>15.743922757149198</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.657466571742862</v>
+        <v>15.743922757149198</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11984,21 +11984,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>35756.779541439166</v>
+        <v>31605.889031701256</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>24.453798583147435</v>
+        <v>21.615035088012394</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>24.453798583147435</v>
+        <v>21.615035088012394</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.472353660634763</v>
+        <v>29.503265910092363</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12026,17 +12026,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-13353.529189928373</v>
+        <v>-13353.185066191354</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-9.1323804149154473</v>
+        <v>-9.1321450712222898</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-9.1323804149154473</v>
+        <v>-9.1321450712222898</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12048,23 +12048,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.02320544299719</v>
+        <v>10.610456514271588</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>15.321418168231988</v>
+        <v>12.482890016790105</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>15.321418168231988</v>
+        <v>12.482890016790105</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>15.321418168231988</v>
+        <v>12.482890016790105</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>20.339973245719314</v>
+        <v>20.371120838870073</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12103,23 +12103,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.1918938676626532</v>
+        <v>6.653385299609706</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>9.6375221972501794</v>
+        <v>7.8275121171878892</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>9.6375221972501794</v>
+        <v>7.8275121171878892</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>9.6375221972501794</v>
+        <v>7.8275121171878892</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>11.61539225260996</v>
+        <v>10.684098844509446</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12158,23 +12158,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>10.607549655329922</v>
+        <v>8.6319209069406462</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>12.479470182741084</v>
+        <v>10.155201066988997</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>12.479470182741084</v>
+        <v>10.155201066988997</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>12.479470182741084</v>
+        <v>10.155201066988997</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>15.977682749164636</v>
+        <v>15.52760984168976</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D45BB3-D466-4B06-AECC-54A2D20BDA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D574B203-EFA5-4A1C-8B5F-F901E6D4722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>280</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3616,7 +3617,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6798851471299659E-2</v>
+        <v>3.6798156976149216E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4300,7 +4301,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4323,6 +4324,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4341,8 +4345,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4378,18 +4382,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1910.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4405,7 +4412,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>SAMSONITE</v>
       </c>
@@ -4434,11 +4441,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>31657.01534835</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4461,11 +4468,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4485,7 +4492,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7650597890218096</v>
+        <v>7.7649132410685224</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4533,10 +4540,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4583,7 +4590,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4673,7 +4680,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.185172343991606</v>
+        <v>12.185402315919433</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4705,7 +4712,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6798851471299659E-2</v>
+        <v>3.6798156976149216E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4724,10 +4731,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4735,22 +4742,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.610456514271588</v>
+        <v>12.397475385776225</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>23.426788964700581</v>
+        <v>27.666626150164522</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.482890016790105</v>
-      </c>
-      <c r="G29" s="312">
+        <v>14.585265159736736</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.371120838870073</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>24.057935782751759</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5732,15 +5739,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5768,7 +5776,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -10007,7 +10015,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>8.3313531565797962</v>
+        <v>8.3311959211191056</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11199,7 +11207,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-9.1321450712222898</v>
+        <v>-9.1319727226241234</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11253,7 +11261,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-9.1321450712222898</v>
+        <v>-9.1319727226241234</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11274,7 +11282,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-9.1321450712222898</v>
+        <v>-9.1319727226241234</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11785,17 +11793,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2066955786069831E-2</v>
+        <v>8.2065406957763321E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2066955786069831E-2</v>
+        <v>8.2065406957763321E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2066955786069831E-2</v>
+        <v>8.2065406957763321E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11836,17 +11844,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6798851471299659E-2</v>
+        <v>3.6798156976149216E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6798851471299659E-2</v>
+        <v>3.6798156976149216E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6798851471299659E-2</v>
+        <v>3.6798156976149216E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11895,7 +11903,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11906,14 +11914,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.475556182338408</v>
+        <v>47.703836882333775</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.475556182338408</v>
+        <v>47.703836882333775</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11934,14 +11942,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.743922757149198</v>
+        <v>17.275187455148764</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.743922757149198</v>
+        <v>17.275187455148764</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11984,21 +11992,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>31605.889031701256</v>
+        <v>34679.767374705116</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.615035088012394</v>
+        <v>23.717237882360859</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.615035088012394</v>
+        <v>23.717237882360859</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.503265910092363</v>
+        <v>33.189908505375882</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12026,17 +12034,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-13353.185066191354</v>
+        <v>-13352.933055003483</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-9.1321450712222898</v>
+        <v>-9.1319727226241234</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-9.1321450712222898</v>
+        <v>-9.1319727226241234</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12048,23 +12056,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.610456514271588</v>
+        <v>12.397475385776225</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.482890016790105</v>
+        <v>14.585265159736736</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>12.482890016790105</v>
+        <v>14.585265159736736</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>12.482890016790105</v>
+        <v>14.585265159736736</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>20.371120838870073</v>
+        <v>24.057935782751759</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12103,23 +12111,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.653385299609706</v>
+        <v>7.3004981055243103</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.8275121171878892</v>
+        <v>8.5888213006168357</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>7.8275121171878892</v>
+        <v>8.5888213006168357</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8275121171878892</v>
+        <v>8.5888213006168357</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.684098844509446</v>
+        <v>12.019198633096504</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12158,23 +12166,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>8.6319209069406462</v>
+        <v>9.8489867456502687</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>10.155201066988997</v>
+        <v>11.587043230176786</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>10.155201066988997</v>
+        <v>11.587043230176786</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>10.155201066988997</v>
+        <v>11.587043230176786</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>15.52760984168976</v>
+        <v>18.038567207924132</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D574B203-EFA5-4A1C-8B5F-F901E6D4722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0604815B-D657-4957-87E5-74ACB79A1311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6798156976149216E-2</v>
+        <v>3.6884065707524609E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4382,27 +4382,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>1910.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>21.65</v>
+        <v>21.6</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4412,40 +4412,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>SAMSONITE</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1462217799</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>31657.01534835</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>31583.9044584</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4468,11 +4468,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4492,7 +4492,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7649132410685224</v>
+        <v>7.7650664647420244</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4623,7 +4623,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.185402315919433</v>
+        <v>12.157020616825834</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6798156976149216E-2</v>
+        <v>3.6884065707524609E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4731,10 +4731,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4742,22 +4742,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.397475385776225</v>
+        <v>13.678593548509065</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>27.666626150164522</v>
+        <v>27.453632701820766</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.585265159736736</v>
-      </c>
-      <c r="G29" s="313">
+        <v>16.09246299824596</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.057935782751759</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>23.872724088539798</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5740,15 +5740,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10015,7 +10015,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>8.3311959211191056</v>
+        <v>8.3313603191495886</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11121,7 +11121,7 @@
         <f>I15+I34</f>
         <v>2453.6</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11132,11 +11132,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11148,11 +11148,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-9.1319727226241234</v>
+        <v>-9.13215292224303</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-9.1319727226241234</v>
+        <v>-9.13215292224303</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-9.1319727226241234</v>
+        <v>-9.13215292224303</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11793,17 +11793,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2065406957763321E-2</v>
+        <v>8.2256996308450556E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2065406957763321E-2</v>
+        <v>8.2256996308450556E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2065406957763321E-2</v>
+        <v>8.2256996308450556E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11844,17 +11844,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6798156976149216E-2</v>
+        <v>3.6884065707524609E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6798156976149216E-2</v>
+        <v>3.6884065707524609E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6798156976149216E-2</v>
+        <v>3.6884065707524609E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11907,21 +11907,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.703836882333775</v>
+        <v>44.118010898784732</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>47.703836882333775</v>
+        <v>44.118010898784732</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11942,14 +11942,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.275187455148764</v>
+        <v>16.667906588831361</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.275187455148764</v>
+        <v>16.667906588831361</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11992,21 +11992,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>34679.767374705116</v>
+        <v>36883.882371877771</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>23.717237882360859</v>
+        <v>25.22461592048899</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>23.717237882360859</v>
+        <v>25.22461592048899</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.189908505375882</v>
+        <v>33.004877010782828</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12034,17 +12034,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-13352.933055003483</v>
+        <v>-13353.196546093621</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-9.1319727226241234</v>
+        <v>-9.13215292224303</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-9.1319727226241234</v>
+        <v>-9.13215292224303</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12056,23 +12056,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.397475385776225</v>
+        <v>13.678593548509065</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>14.585265159736736</v>
+        <v>16.09246299824596</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>14.585265159736736</v>
+        <v>16.09246299824596</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>14.585265159736736</v>
+        <v>16.09246299824596</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>24.057935782751759</v>
+        <v>23.872724088539798</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12111,23 +12111,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.3004981055243103</v>
+        <v>8.1004402359949612</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.5888213006168357</v>
+        <v>9.5299296894058365</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>8.5888213006168357</v>
+        <v>9.5299296894058365</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.5888213006168357</v>
+        <v>9.5299296894058365</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>12.019198633096504</v>
+        <v>12.469333856725381</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12166,23 +12166,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>9.8489867456502687</v>
+        <v>10.889516892252013</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>11.587043230176786</v>
+        <v>12.811196343825898</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>11.587043230176786</v>
+        <v>12.811196343825898</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>11.587043230176786</v>
+        <v>12.811196343825898</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>18.038567207924132</v>
+        <v>18.171028972632591</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02A0D957-1A1C-44CD-BA23-1158EF8B6E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5900461A-98BC-41E9-99F7-13F2EE4AFDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6883131782213849E-2</v>
+        <v>3.6237744998931884E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4410,27 +4410,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>1910.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4440,7 +4440,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>SAMSONITE</v>
       </c>
@@ -4469,11 +4469,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>31583.9044584</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>32168.791578</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4496,11 +4496,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4520,7 +4520,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7648698488871259</v>
+        <v>7.7702767054239912</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.157328447227131</v>
+        <v>12.373847965759243</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6883131782213849E-2</v>
+        <v>3.6237744998931884E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4759,10 +4759,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4770,22 +4770,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.77553767745418</v>
+        <v>13.670705369399569</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>27.660644419401144</v>
+        <v>27.477157636134539</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>16.206514914651976</v>
-      </c>
-      <c r="G29" s="313">
+        <v>16.083182787528905</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>24.052734277740129</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>23.89318055316047</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5768,15 +5768,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10145,7 +10145,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>8.3311493644154524</v>
+        <v>8.3369505343355179</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-9.1319216909893086</v>
+        <v>-9.1382804570021268</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-9.1319216909893086</v>
+        <v>-9.1382804570021268</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-9.1319216909893086</v>
+        <v>-9.1382804570021268</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11923,17 +11923,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2254913514990383E-2</v>
+        <v>8.0815604229758406E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2254913514990383E-2</v>
+        <v>8.0815604229758406E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2254913514990383E-2</v>
+        <v>8.0815604229758406E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11974,17 +11974,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6883131782213849E-2</v>
+        <v>3.6237744998931884E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6883131782213849E-2</v>
+        <v>3.6237744998931884E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6883131782213849E-2</v>
+        <v>3.6237744998931884E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12044,14 +12044,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.317083988495376</v>
+        <v>44.112496848830034</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.317083988495376</v>
+        <v>44.112496848830034</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12072,14 +12072,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.743185518719955</v>
+        <v>16.713168266749499</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.743185518719955</v>
+        <v>16.713168266749499</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12122,21 +12122,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>37050.313003601826</v>
+        <v>36879.272472977565</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>25.338436605641284</v>
+        <v>25.22146324453103</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>25.338436605641284</v>
+        <v>25.22146324453103</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.184655968729437</v>
+        <v>33.031461010162595</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12164,17 +12164,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-13352.858435638746</v>
+        <v>-13362.156336482365</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-9.1319216909893086</v>
+        <v>-9.1382804570021268</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-9.1319216909893086</v>
+        <v>-9.1382804570021268</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12186,23 +12186,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.77553767745418</v>
+        <v>13.670705369399569</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>16.206514914651976</v>
+        <v>16.083182787528905</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>16.206514914651976</v>
+        <v>16.083182787528905</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>16.206514914651976</v>
+        <v>16.083182787528905</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>24.052734277740129</v>
+        <v>23.89318055316047</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12241,23 +12241,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.1370250626102472</v>
+        <v>8.1224369705580397</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>9.5729706618944093</v>
+        <v>9.5558082006565179</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>9.5729706618944093</v>
+        <v>9.5558082006565179</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>9.5729706618944093</v>
+        <v>9.5558082006565179</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>12.537306186561629</v>
+        <v>12.514829252383722</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12296,23 +12296,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>10.956281370032213</v>
+        <v>10.896571169978804</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>12.889742788273193</v>
+        <v>12.819495494092711</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>12.889742788273193</v>
+        <v>12.819495494092711</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>12.889742788273193</v>
+        <v>12.819495494092711</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>18.295020232150879</v>
+        <v>18.204004902772095</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1910.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5900461A-98BC-41E9-99F7-13F2EE4AFDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB240425-CA92-4A94-8057-C9375657055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6237744998931884E-2</v>
+        <v>3.5181193759262826E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4410,27 +4410,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>1910.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4440,40 +4440,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>SAMSONITE</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1462217799</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45591</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>32168.791578</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>33192.344037299998</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4496,11 +4496,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4520,7 +4520,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7702767054239912</v>
+        <v>7.7837533950805664</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.373847965759243</v>
+        <v>12.745455720094107</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6237744998931884E-2</v>
+        <v>3.5181193759262826E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4759,10 +4759,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4770,22 +4770,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.670705369399569</v>
+        <v>13.507754378846537</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>27.477157636134539</v>
+        <v>27.194070665223585</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>16.083182787528905</v>
-      </c>
-      <c r="G29" s="314">
+        <v>15.891475739819455</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>23.89318055316047</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>23.647017969759641</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5768,15 +5768,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10145,7 +10145,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>8.3369505343355179</v>
+        <v>8.3514100573734851</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11251,7 +11251,7 @@
         <f>I15+I34</f>
         <v>2453.6</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11262,11 +11262,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11278,11 +11278,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-9.1382804570021268</v>
+        <v>-9.1541297985870678</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-9.1382804570021268</v>
+        <v>-9.1541297985870678</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-9.1382804570021268</v>
+        <v>-9.1541297985870678</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11923,17 +11923,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0815604229758406E-2</v>
+        <v>7.8459336563653004E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0815604229758406E-2</v>
+        <v>7.8459336563653004E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.0815604229758406E-2</v>
+        <v>7.8459336563653004E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11974,17 +11974,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6237744998931884E-2</v>
+        <v>3.5181193759262826E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6237744998931884E-2</v>
+        <v>3.5181193759262826E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6237744998931884E-2</v>
+        <v>3.5181193759262826E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12044,14 +12044,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.112496848830034</v>
+        <v>43.804920621707609</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>44.112496848830034</v>
+        <v>43.804920621707609</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12072,14 +12072,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.713168266749499</v>
+        <v>16.673978360695184</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.713168266749499</v>
+        <v>16.673978360695184</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12122,21 +12122,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>36879.272472977565</v>
+        <v>36622.130204991001</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>25.22146324453103</v>
+        <v>25.045605538406523</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>25.22146324453103</v>
+        <v>25.045605538406523</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>33.031461010162595</v>
+        <v>32.801147768346709</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12164,17 +12164,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-13362.156336482365</v>
+        <v>-13385.331525850295</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-9.1382804570021268</v>
+        <v>-9.1541297985870678</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-9.1382804570021268</v>
+        <v>-9.1541297985870678</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12186,23 +12186,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.670705369399569</v>
+        <v>13.507754378846537</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>16.083182787528905</v>
+        <v>15.891475739819455</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>16.083182787528905</v>
+        <v>15.891475739819455</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>16.083182787528905</v>
+        <v>15.891475739819455</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>23.89318055316047</v>
+        <v>23.647017969759641</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12241,23 +12241,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.1224369705580397</v>
+        <v>8.1033910579741555</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>9.5558082006565179</v>
+        <v>9.5334012446754777</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>9.5558082006565179</v>
+        <v>9.5334012446754777</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>9.5558082006565179</v>
+        <v>9.5334012446754777</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>12.514829252383722</v>
+        <v>12.485483829968365</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12296,23 +12296,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>10.896571169978804</v>
+        <v>10.805572718410346</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>12.819495494092711</v>
+        <v>12.712438492247466</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>12.819495494092711</v>
+        <v>12.712438492247466</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>12.819495494092711</v>
+        <v>12.712438492247466</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>18.204004902772095</v>
+        <v>18.066250899864002</v>
       </c>
       <c r="K106" s="75"/>
     </row>
